--- a/tf_models/cnn_res_df.xlsx
+++ b/tf_models/cnn_res_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I667"/>
+  <dimension ref="A1:H667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>training_time</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -505,9 +500,6 @@
       <c r="H2" t="n">
         <v>23.29412078857422</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.318026132948936</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -534,9 +526,6 @@
       <c r="H3" t="n">
         <v>25.44848656654358</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.542027974630923</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -563,9 +552,6 @@
       <c r="H4" t="n">
         <v>16.4058301448822</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.451968119569558</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,9 +578,6 @@
       <c r="H5" t="n">
         <v>24.78605008125305</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.367262329618521</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -621,9 +604,6 @@
       <c r="H6" t="n">
         <v>17.95714783668518</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.346867762675183</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -650,9 +630,6 @@
       <c r="H7" t="n">
         <v>13.90968632698059</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.391803118502757</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -679,9 +656,6 @@
       <c r="H8" t="n">
         <v>23.6259925365448</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.49969033374745</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -708,9 +682,6 @@
       <c r="H9" t="n">
         <v>24.56989526748657</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.385613491500134</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -737,9 +708,6 @@
       <c r="H10" t="n">
         <v>10.61027693748474</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.324659195270061</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -766,9 +734,6 @@
       <c r="H11" t="n">
         <v>21.95020198822021</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.565440575135234</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -795,9 +760,6 @@
       <c r="H12" t="n">
         <v>14.9066379070282</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.635080546503177</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -824,9 +786,6 @@
       <c r="H13" t="n">
         <v>13.6251425743103</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.439311408999202</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -853,9 +812,6 @@
       <c r="H14" t="n">
         <v>22.43038654327393</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.498715353589669</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -882,9 +838,6 @@
       <c r="H15" t="n">
         <v>10.45020151138306</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.641728343926516</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -911,9 +864,6 @@
       <c r="H16" t="n">
         <v>11.19028806686401</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.439978045313185</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -940,9 +890,6 @@
       <c r="H17" t="n">
         <v>22.76839303970337</v>
       </c>
-      <c r="I17" t="n">
-        <v>1.313492400759327</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -969,9 +916,6 @@
       <c r="H18" t="n">
         <v>19.4127140045166</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.423795866727289</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -998,9 +942,6 @@
       <c r="H19" t="n">
         <v>12.29040670394897</v>
       </c>
-      <c r="I19" t="n">
-        <v>1.465065964101085</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1027,9 +968,6 @@
       <c r="H20" t="n">
         <v>23.52027130126953</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.490157847918398</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1056,9 +994,6 @@
       <c r="H21" t="n">
         <v>13.42439985275269</v>
       </c>
-      <c r="I21" t="n">
-        <v>1.561304594940712</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1085,9 +1020,6 @@
       <c r="H22" t="n">
         <v>8.950433731079102</v>
       </c>
-      <c r="I22" t="n">
-        <v>1.586111933243215</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1114,9 +1046,6 @@
       <c r="H23" t="n">
         <v>23.20784687995911</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.538598310323829</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1143,9 +1072,6 @@
       <c r="H24" t="n">
         <v>9.145644903182983</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.494122250499792</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1172,9 +1098,6 @@
       <c r="H25" t="n">
         <v>8.560287952423096</v>
       </c>
-      <c r="I25" t="n">
-        <v>1.462639202919753</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1201,9 +1124,6 @@
       <c r="H26" t="n">
         <v>23.70726943016052</v>
       </c>
-      <c r="I26" t="n">
-        <v>1.538590064335208</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1230,9 +1150,6 @@
       <c r="H27" t="n">
         <v>10.22874093055725</v>
       </c>
-      <c r="I27" t="n">
-        <v>1.484268288856801</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1259,9 +1176,6 @@
       <c r="H28" t="n">
         <v>9.164017200469971</v>
       </c>
-      <c r="I28" t="n">
-        <v>1.532497478502395</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1288,9 +1202,6 @@
       <c r="H29" t="n">
         <v>18.12851071357727</v>
       </c>
-      <c r="I29" t="n">
-        <v>1.531661946226298</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1317,9 +1228,6 @@
       <c r="H30" t="n">
         <v>9.71704363822937</v>
       </c>
-      <c r="I30" t="n">
-        <v>1.518665451725263</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1346,9 +1254,6 @@
       <c r="H31" t="n">
         <v>5.977692604064941</v>
       </c>
-      <c r="I31" t="n">
-        <v>1.674862251046397</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1375,9 +1280,6 @@
       <c r="H32" t="n">
         <v>18.41775226593018</v>
       </c>
-      <c r="I32" t="n">
-        <v>1.549831026383485</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1404,9 +1306,6 @@
       <c r="H33" t="n">
         <v>16.36929535865784</v>
       </c>
-      <c r="I33" t="n">
-        <v>1.657966947512151</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1433,9 +1332,6 @@
       <c r="H34" t="n">
         <v>9.000519275665283</v>
       </c>
-      <c r="I34" t="n">
-        <v>1.685827455878403</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1462,9 +1358,6 @@
       <c r="H35" t="n">
         <v>19.16802549362183</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.531753934385688</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1491,9 +1384,6 @@
       <c r="H36" t="n">
         <v>10.80229258537292</v>
       </c>
-      <c r="I36" t="n">
-        <v>1.536227300705618</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1520,9 +1410,6 @@
       <c r="H37" t="n">
         <v>6.718790292739868</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.6466136133165</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1549,9 +1436,6 @@
       <c r="H38" t="n">
         <v>18.65292072296143</v>
       </c>
-      <c r="I38" t="n">
-        <v>1.595746097694325</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1578,9 +1462,6 @@
       <c r="H39" t="n">
         <v>9.805292129516602</v>
       </c>
-      <c r="I39" t="n">
-        <v>1.989868217574638</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1607,9 +1488,6 @@
       <c r="H40" t="n">
         <v>7.661169052124023</v>
       </c>
-      <c r="I40" t="n">
-        <v>1.732463897019352</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1636,9 +1514,6 @@
       <c r="H41" t="n">
         <v>18.90860748291016</v>
       </c>
-      <c r="I41" t="n">
-        <v>1.652553163248554</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1665,9 +1540,6 @@
       <c r="H42" t="n">
         <v>8.920664548873901</v>
       </c>
-      <c r="I42" t="n">
-        <v>1.911732151633383</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1694,9 +1566,6 @@
       <c r="H43" t="n">
         <v>7.691943645477295</v>
       </c>
-      <c r="I43" t="n">
-        <v>1.774338766471679</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1723,9 +1592,6 @@
       <c r="H44" t="n">
         <v>20.27333903312683</v>
       </c>
-      <c r="I44" t="n">
-        <v>1.752088566115246</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1752,9 +1618,6 @@
       <c r="H45" t="n">
         <v>6.830011606216431</v>
       </c>
-      <c r="I45" t="n">
-        <v>1.821583112956281</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1781,9 +1644,6 @@
       <c r="H46" t="n">
         <v>5.083746194839478</v>
       </c>
-      <c r="I46" t="n">
-        <v>1.76984682153332</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1810,9 +1670,6 @@
       <c r="H47" t="n">
         <v>15.75557827949524</v>
       </c>
-      <c r="I47" t="n">
-        <v>1.868384390968385</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1839,9 +1696,6 @@
       <c r="H48" t="n">
         <v>7.562533378601074</v>
       </c>
-      <c r="I48" t="n">
-        <v>1.852759042297437</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1868,9 +1722,6 @@
       <c r="H49" t="n">
         <v>7.742542743682861</v>
       </c>
-      <c r="I49" t="n">
-        <v>1.493066970850656</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1897,9 +1748,6 @@
       <c r="H50" t="n">
         <v>20.23220562934875</v>
       </c>
-      <c r="I50" t="n">
-        <v>1.344703585490622</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1926,9 +1774,6 @@
       <c r="H51" t="n">
         <v>7.683252334594727</v>
       </c>
-      <c r="I51" t="n">
-        <v>1.743212763701657</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1955,9 +1800,6 @@
       <c r="H52" t="n">
         <v>5.974067449569702</v>
       </c>
-      <c r="I52" t="n">
-        <v>1.692228318804634</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1984,9 +1826,6 @@
       <c r="H53" t="n">
         <v>22.0975615978241</v>
       </c>
-      <c r="I53" t="n">
-        <v>1.917416427741379</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2013,9 +1852,6 @@
       <c r="H54" t="n">
         <v>9.37627387046814</v>
       </c>
-      <c r="I54" t="n">
-        <v>1.845567625155604</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2042,9 +1878,6 @@
       <c r="H55" t="n">
         <v>6.539493560791016</v>
       </c>
-      <c r="I55" t="n">
-        <v>1.692165855586402</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2071,9 +1904,6 @@
       <c r="H56" t="n">
         <v>19.6346709728241</v>
       </c>
-      <c r="I56" t="n">
-        <v>2.135500508778424</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2100,9 +1930,6 @@
       <c r="H57" t="n">
         <v>6.566565990447998</v>
       </c>
-      <c r="I57" t="n">
-        <v>2.061532090006021</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2129,9 +1956,6 @@
       <c r="H58" t="n">
         <v>6.003101825714111</v>
       </c>
-      <c r="I58" t="n">
-        <v>1.90498866257284</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2158,9 +1982,6 @@
       <c r="H59" t="n">
         <v>19.67564249038696</v>
       </c>
-      <c r="I59" t="n">
-        <v>2.281609095035938</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2187,9 +2008,6 @@
       <c r="H60" t="n">
         <v>6.584297180175781</v>
       </c>
-      <c r="I60" t="n">
-        <v>2.21951828805188</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2216,9 +2034,6 @@
       <c r="H61" t="n">
         <v>6.564553022384644</v>
       </c>
-      <c r="I61" t="n">
-        <v>2.082053784265482</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2245,9 +2060,6 @@
       <c r="H62" t="n">
         <v>20.56298327445984</v>
       </c>
-      <c r="I62" t="n">
-        <v>2.195012397784516</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2274,9 +2086,6 @@
       <c r="H63" t="n">
         <v>6.281556606292725</v>
       </c>
-      <c r="I63" t="n">
-        <v>1.804824438753833</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2303,9 +2112,6 @@
       <c r="H64" t="n">
         <v>5.671392679214478</v>
       </c>
-      <c r="I64" t="n">
-        <v>1.711778974693939</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2332,9 +2138,6 @@
       <c r="H65" t="n">
         <v>18.12581324577332</v>
       </c>
-      <c r="I65" t="n">
-        <v>2.043187144406789</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2361,9 +2164,6 @@
       <c r="H66" t="n">
         <v>6.023301839828491</v>
       </c>
-      <c r="I66" t="n">
-        <v>2.045587460583624</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2390,9 +2190,6 @@
       <c r="H67" t="n">
         <v>5.605097055435181</v>
       </c>
-      <c r="I67" t="n">
-        <v>1.810896049740599</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2419,9 +2216,6 @@
       <c r="H68" t="n">
         <v>19.26621842384338</v>
       </c>
-      <c r="I68" t="n">
-        <v>2.544425305737741</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2448,9 +2242,6 @@
       <c r="H69" t="n">
         <v>6.075611591339111</v>
       </c>
-      <c r="I69" t="n">
-        <v>2.142236450538616</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2477,9 +2268,6 @@
       <c r="H70" t="n">
         <v>5.108722686767578</v>
       </c>
-      <c r="I70" t="n">
-        <v>2.058254523536578</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2506,9 +2294,6 @@
       <c r="H71" t="n">
         <v>18.18015909194946</v>
       </c>
-      <c r="I71" t="n">
-        <v>2.244759799215425</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2535,9 +2320,6 @@
       <c r="H72" t="n">
         <v>8.56400203704834</v>
       </c>
-      <c r="I72" t="n">
-        <v>2.396844564139578</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2564,9 +2346,6 @@
       <c r="H73" t="n">
         <v>6.908871412277222</v>
       </c>
-      <c r="I73" t="n">
-        <v>1.929565614207956</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2593,9 +2372,6 @@
       <c r="H74" t="n">
         <v>18.30038404464722</v>
       </c>
-      <c r="I74" t="n">
-        <v>2.817838157970157</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2622,9 +2398,6 @@
       <c r="H75" t="n">
         <v>8.979369878768921</v>
       </c>
-      <c r="I75" t="n">
-        <v>2.451343300537418</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2651,9 +2424,6 @@
       <c r="H76" t="n">
         <v>7.070202112197876</v>
       </c>
-      <c r="I76" t="n">
-        <v>1.784720699274992</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2680,9 +2450,6 @@
       <c r="H77" t="n">
         <v>17.8755202293396</v>
       </c>
-      <c r="I77" t="n">
-        <v>2.835229472102105</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2709,9 +2476,6 @@
       <c r="H78" t="n">
         <v>7.63545036315918</v>
       </c>
-      <c r="I78" t="n">
-        <v>1.974548457998111</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2738,9 +2502,6 @@
       <c r="H79" t="n">
         <v>6.620262145996094</v>
       </c>
-      <c r="I79" t="n">
-        <v>1.684294708445214</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2767,9 +2528,6 @@
       <c r="H80" t="n">
         <v>24.76288461685181</v>
       </c>
-      <c r="I80" t="n">
-        <v>3.082774793232021</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2796,9 +2554,6 @@
       <c r="H81" t="n">
         <v>7.907649755477905</v>
       </c>
-      <c r="I81" t="n">
-        <v>2.08642049023777</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2825,9 +2580,6 @@
       <c r="H82" t="n">
         <v>8.338207483291626</v>
       </c>
-      <c r="I82" t="n">
-        <v>1.898386382104468</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2854,9 +2606,6 @@
       <c r="H83" t="n">
         <v>18.25188946723938</v>
       </c>
-      <c r="I83" t="n">
-        <v>1.526874481739251</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2883,9 +2632,6 @@
       <c r="H84" t="n">
         <v>12.96989917755127</v>
       </c>
-      <c r="I84" t="n">
-        <v>1.426291863454471</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2912,9 +2658,6 @@
       <c r="H85" t="n">
         <v>11.62446260452271</v>
       </c>
-      <c r="I85" t="n">
-        <v>1.516798069747402</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2941,9 +2684,6 @@
       <c r="H86" t="n">
         <v>18.62720513343811</v>
       </c>
-      <c r="I86" t="n">
-        <v>1.507793702047818</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2970,9 +2710,6 @@
       <c r="H87" t="n">
         <v>9.315969705581665</v>
       </c>
-      <c r="I87" t="n">
-        <v>1.484142698938016</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2999,9 +2736,6 @@
       <c r="H88" t="n">
         <v>6.583029747009277</v>
       </c>
-      <c r="I88" t="n">
-        <v>1.532917509900518</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3028,9 +2762,6 @@
       <c r="H89" t="n">
         <v>19.19813895225525</v>
       </c>
-      <c r="I89" t="n">
-        <v>1.490010586882908</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3057,9 +2788,6 @@
       <c r="H90" t="n">
         <v>10.35010361671448</v>
       </c>
-      <c r="I90" t="n">
-        <v>1.515096467865129</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3086,9 +2814,6 @@
       <c r="H91" t="n">
         <v>10.36835408210754</v>
       </c>
-      <c r="I91" t="n">
-        <v>1.64815274375806</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3115,9 +2840,6 @@
       <c r="H92" t="n">
         <v>18.56054401397705</v>
       </c>
-      <c r="I92" t="n">
-        <v>1.686514347828679</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3144,9 +2866,6 @@
       <c r="H93" t="n">
         <v>8.097818374633789</v>
       </c>
-      <c r="I93" t="n">
-        <v>1.652298740118244</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3173,9 +2892,6 @@
       <c r="H94" t="n">
         <v>8.986876249313354</v>
       </c>
-      <c r="I94" t="n">
-        <v>1.673018005024518</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3202,9 +2918,6 @@
       <c r="H95" t="n">
         <v>18.97615504264832</v>
       </c>
-      <c r="I95" t="n">
-        <v>1.7324229101219</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3231,9 +2944,6 @@
       <c r="H96" t="n">
         <v>11.91680264472961</v>
       </c>
-      <c r="I96" t="n">
-        <v>1.709197413434442</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3260,9 +2970,6 @@
       <c r="H97" t="n">
         <v>12.18511843681335</v>
       </c>
-      <c r="I97" t="n">
-        <v>1.681513194450142</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3289,9 +2996,6 @@
       <c r="H98" t="n">
         <v>20.11192655563354</v>
       </c>
-      <c r="I98" t="n">
-        <v>1.619010292295499</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3318,9 +3022,6 @@
       <c r="H99" t="n">
         <v>9.894174337387085</v>
       </c>
-      <c r="I99" t="n">
-        <v>1.606849386217218</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3347,9 +3048,6 @@
       <c r="H100" t="n">
         <v>6.27407169342041</v>
       </c>
-      <c r="I100" t="n">
-        <v>1.608476966225846</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3376,9 +3074,6 @@
       <c r="H101" t="n">
         <v>20.22170329093933</v>
       </c>
-      <c r="I101" t="n">
-        <v>1.671809079469675</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3405,9 +3100,6 @@
       <c r="H102" t="n">
         <v>7.525098562240601</v>
       </c>
-      <c r="I102" t="n">
-        <v>1.71638482993539</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3434,9 +3126,6 @@
       <c r="H103" t="n">
         <v>10.83200144767761</v>
       </c>
-      <c r="I103" t="n">
-        <v>1.674008620416073</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3463,9 +3152,6 @@
       <c r="H104" t="n">
         <v>20.80826592445374</v>
       </c>
-      <c r="I104" t="n">
-        <v>1.611055807988678</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3492,9 +3178,6 @@
       <c r="H105" t="n">
         <v>13.18819999694824</v>
       </c>
-      <c r="I105" t="n">
-        <v>1.317940083939252</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3521,9 +3204,6 @@
       <c r="H106" t="n">
         <v>8.740268468856812</v>
       </c>
-      <c r="I106" t="n">
-        <v>1.726612047298177</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3550,9 +3230,6 @@
       <c r="H107" t="n">
         <v>20.83667635917664</v>
       </c>
-      <c r="I107" t="n">
-        <v>1.610831088173134</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3579,9 +3256,6 @@
       <c r="H108" t="n">
         <v>19.56959009170532</v>
       </c>
-      <c r="I108" t="n">
-        <v>1.848963658850408</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3608,9 +3282,6 @@
       <c r="H109" t="n">
         <v>8.360275506973267</v>
       </c>
-      <c r="I109" t="n">
-        <v>1.601360076661958</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3637,9 +3308,6 @@
       <c r="H110" t="n">
         <v>18.33021903038025</v>
       </c>
-      <c r="I110" t="n">
-        <v>1.652315370838188</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3666,9 +3334,6 @@
       <c r="H111" t="n">
         <v>10.86465191841125</v>
       </c>
-      <c r="I111" t="n">
-        <v>1.806999883183397</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3695,9 +3360,6 @@
       <c r="H112" t="n">
         <v>6.895010471343994</v>
       </c>
-      <c r="I112" t="n">
-        <v>1.839581827971348</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3724,9 +3386,6 @@
       <c r="H113" t="n">
         <v>18.73901534080505</v>
       </c>
-      <c r="I113" t="n">
-        <v>1.927480442837931</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3753,9 +3412,6 @@
       <c r="H114" t="n">
         <v>9.507937431335449</v>
       </c>
-      <c r="I114" t="n">
-        <v>1.752280129444248</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3782,9 +3438,6 @@
       <c r="H115" t="n">
         <v>7.769917726516724</v>
       </c>
-      <c r="I115" t="n">
-        <v>1.791064805258997</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3811,9 +3464,6 @@
       <c r="H116" t="n">
         <v>20.79925227165222</v>
       </c>
-      <c r="I116" t="n">
-        <v>1.753224829572281</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3840,9 +3490,6 @@
       <c r="H117" t="n">
         <v>13.9293053150177</v>
       </c>
-      <c r="I117" t="n">
-        <v>1.753225785611997</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3869,9 +3516,6 @@
       <c r="H118" t="n">
         <v>7.875402450561523</v>
       </c>
-      <c r="I118" t="n">
-        <v>1.745576306524848</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3898,9 +3542,6 @@
       <c r="H119" t="n">
         <v>18.71920299530029</v>
       </c>
-      <c r="I119" t="n">
-        <v>1.734174283075604</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3927,9 +3568,6 @@
       <c r="H120" t="n">
         <v>8.94863224029541</v>
       </c>
-      <c r="I120" t="n">
-        <v>1.867883043877915</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3956,9 +3594,6 @@
       <c r="H121" t="n">
         <v>7.053196430206299</v>
       </c>
-      <c r="I121" t="n">
-        <v>1.978672369380234</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3985,9 +3620,6 @@
       <c r="H122" t="n">
         <v>19.09745383262634</v>
       </c>
-      <c r="I122" t="n">
-        <v>1.828738227962186</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4014,9 +3646,6 @@
       <c r="H123" t="n">
         <v>8.487114191055298</v>
       </c>
-      <c r="I123" t="n">
-        <v>1.745562953595639</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4043,9 +3672,6 @@
       <c r="H124" t="n">
         <v>5.297804117202759</v>
       </c>
-      <c r="I124" t="n">
-        <v>1.649015532185609</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4072,9 +3698,6 @@
       <c r="H125" t="n">
         <v>19.77124881744385</v>
       </c>
-      <c r="I125" t="n">
-        <v>1.72380738283053</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4101,9 +3724,6 @@
       <c r="H126" t="n">
         <v>8.860593318939209</v>
       </c>
-      <c r="I126" t="n">
-        <v>1.920599653360454</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4130,9 +3750,6 @@
       <c r="H127" t="n">
         <v>6.910612344741821</v>
       </c>
-      <c r="I127" t="n">
-        <v>1.525484660900422</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4159,9 +3776,6 @@
       <c r="H128" t="n">
         <v>20.07309675216675</v>
       </c>
-      <c r="I128" t="n">
-        <v>2.270984878380701</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4188,9 +3802,6 @@
       <c r="H129" t="n">
         <v>8.392257928848267</v>
       </c>
-      <c r="I129" t="n">
-        <v>2.006110711082265</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4217,9 +3828,6 @@
       <c r="H130" t="n">
         <v>5.006959915161133</v>
       </c>
-      <c r="I130" t="n">
-        <v>2.094703846013201</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4246,9 +3854,6 @@
       <c r="H131" t="n">
         <v>20.78245067596436</v>
       </c>
-      <c r="I131" t="n">
-        <v>1.855054659462775</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4275,9 +3880,6 @@
       <c r="H132" t="n">
         <v>9.142874717712402</v>
       </c>
-      <c r="I132" t="n">
-        <v>2.02067517071889</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4304,9 +3906,6 @@
       <c r="H133" t="n">
         <v>6.333145618438721</v>
       </c>
-      <c r="I133" t="n">
-        <v>1.912745789900195</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4333,9 +3932,6 @@
       <c r="H134" t="n">
         <v>21.33899569511414</v>
       </c>
-      <c r="I134" t="n">
-        <v>2.008687628955581</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4362,9 +3958,6 @@
       <c r="H135" t="n">
         <v>9.42236852645874</v>
       </c>
-      <c r="I135" t="n">
-        <v>2.217793866089447</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4391,9 +3984,6 @@
       <c r="H136" t="n">
         <v>6.491243362426758</v>
       </c>
-      <c r="I136" t="n">
-        <v>1.992853769262779</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4420,9 +4010,6 @@
       <c r="H137" t="n">
         <v>18.63932633399963</v>
       </c>
-      <c r="I137" t="n">
-        <v>2.707678213190902</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4449,9 +4036,6 @@
       <c r="H138" t="n">
         <v>7.037961483001709</v>
       </c>
-      <c r="I138" t="n">
-        <v>2.396858627755429</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4478,9 +4062,6 @@
       <c r="H139" t="n">
         <v>5.331079006195068</v>
       </c>
-      <c r="I139" t="n">
-        <v>1.915944357224541</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4507,9 +4088,6 @@
       <c r="H140" t="n">
         <v>18.99596095085144</v>
       </c>
-      <c r="I140" t="n">
-        <v>2.374149339293937</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4536,9 +4114,6 @@
       <c r="H141" t="n">
         <v>7.651713371276855</v>
       </c>
-      <c r="I141" t="n">
-        <v>2.27603646990981</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4565,9 +4140,6 @@
       <c r="H142" t="n">
         <v>6.090327739715576</v>
       </c>
-      <c r="I142" t="n">
-        <v>2.029820080055603</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4594,9 +4166,6 @@
       <c r="H143" t="n">
         <v>20.61879372596741</v>
       </c>
-      <c r="I143" t="n">
-        <v>2.319403466943796</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4623,9 +4192,6 @@
       <c r="H144" t="n">
         <v>9.988928079605103</v>
       </c>
-      <c r="I144" t="n">
-        <v>2.020357027464021</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4652,9 +4218,6 @@
       <c r="H145" t="n">
         <v>5.752197504043579</v>
       </c>
-      <c r="I145" t="n">
-        <v>2.23080791295805</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4681,9 +4244,6 @@
       <c r="H146" t="n">
         <v>17.31147933006287</v>
       </c>
-      <c r="I146" t="n">
-        <v>3.007444246194771</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4710,9 +4270,6 @@
       <c r="H147" t="n">
         <v>6.496500730514526</v>
       </c>
-      <c r="I147" t="n">
-        <v>2.649442434449905</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4739,9 +4296,6 @@
       <c r="H148" t="n">
         <v>5.50143027305603</v>
       </c>
-      <c r="I148" t="n">
-        <v>1.682606854515339</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4768,9 +4322,6 @@
       <c r="H149" t="n">
         <v>15.63783979415894</v>
       </c>
-      <c r="I149" t="n">
-        <v>2.427833884703821</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4797,9 +4348,6 @@
       <c r="H150" t="n">
         <v>6.225715160369873</v>
       </c>
-      <c r="I150" t="n">
-        <v>2.139462695234883</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4826,9 +4374,6 @@
       <c r="H151" t="n">
         <v>5.025412559509277</v>
       </c>
-      <c r="I151" t="n">
-        <v>2.183878049646975</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4855,9 +4400,6 @@
       <c r="H152" t="n">
         <v>17.86792039871216</v>
       </c>
-      <c r="I152" t="n">
-        <v>2.08920511727265</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4884,9 +4426,6 @@
       <c r="H153" t="n">
         <v>7.213078737258911</v>
       </c>
-      <c r="I153" t="n">
-        <v>2.751868129000294</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4913,9 +4452,6 @@
       <c r="H154" t="n">
         <v>5.603173494338989</v>
       </c>
-      <c r="I154" t="n">
-        <v>1.919297704102122</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4942,9 +4478,6 @@
       <c r="H155" t="n">
         <v>20.36026644706726</v>
       </c>
-      <c r="I155" t="n">
-        <v>3.154472026382042</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4971,9 +4504,6 @@
       <c r="H156" t="n">
         <v>7.689732074737549</v>
       </c>
-      <c r="I156" t="n">
-        <v>2.957940547502258</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5000,9 +4530,6 @@
       <c r="H157" t="n">
         <v>6.701025009155273</v>
       </c>
-      <c r="I157" t="n">
-        <v>1.980053899488</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5029,9 +4556,6 @@
       <c r="H158" t="n">
         <v>18.21093034744263</v>
       </c>
-      <c r="I158" t="n">
-        <v>3.089493580175205</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5058,9 +4582,6 @@
       <c r="H159" t="n">
         <v>6.70361065864563</v>
       </c>
-      <c r="I159" t="n">
-        <v>2.617481553694564</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5087,9 +4608,6 @@
       <c r="H160" t="n">
         <v>6.772207260131836</v>
       </c>
-      <c r="I160" t="n">
-        <v>1.886168529727868</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5116,9 +4634,6 @@
       <c r="H161" t="n">
         <v>23.66582703590393</v>
       </c>
-      <c r="I161" t="n">
-        <v>2.576090863433826</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5145,9 +4660,6 @@
       <c r="H162" t="n">
         <v>10.81480622291565</v>
       </c>
-      <c r="I162" t="n">
-        <v>2.67394807470546</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5174,9 +4686,6 @@
       <c r="H163" t="n">
         <v>6.779790639877319</v>
       </c>
-      <c r="I163" t="n">
-        <v>2.489670230261683</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5203,9 +4712,6 @@
       <c r="H164" t="n">
         <v>18.31262540817261</v>
       </c>
-      <c r="I164" t="n">
-        <v>1.337911810165795</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5232,9 +4738,6 @@
       <c r="H165" t="n">
         <v>14.23127198219299</v>
       </c>
-      <c r="I165" t="n">
-        <v>1.591544932083556</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5261,9 +4764,6 @@
       <c r="H166" t="n">
         <v>10.76535725593567</v>
       </c>
-      <c r="I166" t="n">
-        <v>1.502902046567569</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5290,9 +4790,6 @@
       <c r="H167" t="n">
         <v>18.78650808334351</v>
       </c>
-      <c r="I167" t="n">
-        <v>1.39569258797359</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5319,9 +4816,6 @@
       <c r="H168" t="n">
         <v>13.58844232559204</v>
       </c>
-      <c r="I168" t="n">
-        <v>1.507764529699748</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5348,9 +4842,6 @@
       <c r="H169" t="n">
         <v>6.996777057647705</v>
       </c>
-      <c r="I169" t="n">
-        <v>1.304817094018063</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5377,9 +4868,6 @@
       <c r="H170" t="n">
         <v>19.42247819900513</v>
       </c>
-      <c r="I170" t="n">
-        <v>1.298958072679767</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5406,9 +4894,6 @@
       <c r="H171" t="n">
         <v>9.458593368530273</v>
       </c>
-      <c r="I171" t="n">
-        <v>1.474007543946204</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5435,9 +4920,6 @@
       <c r="H172" t="n">
         <v>9.080829858779907</v>
       </c>
-      <c r="I172" t="n">
-        <v>1.249179051272503</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5464,9 +4946,6 @@
       <c r="H173" t="n">
         <v>18.75295257568359</v>
       </c>
-      <c r="I173" t="n">
-        <v>1.433069484970708</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5493,9 +4972,6 @@
       <c r="H174" t="n">
         <v>15.22346925735474</v>
       </c>
-      <c r="I174" t="n">
-        <v>1.613570251314365</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5522,9 +4998,6 @@
       <c r="H175" t="n">
         <v>10.08617687225342</v>
       </c>
-      <c r="I175" t="n">
-        <v>1.543258222870006</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5551,9 +5024,6 @@
       <c r="H176" t="n">
         <v>18.95431590080261</v>
       </c>
-      <c r="I176" t="n">
-        <v>1.489674688382102</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5580,9 +5050,6 @@
       <c r="H177" t="n">
         <v>6.703967094421387</v>
       </c>
-      <c r="I177" t="n">
-        <v>1.53449031853778</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5609,9 +5076,6 @@
       <c r="H178" t="n">
         <v>7.130852937698364</v>
       </c>
-      <c r="I178" t="n">
-        <v>1.299619757707177</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5638,9 +5102,6 @@
       <c r="H179" t="n">
         <v>20.19120478630066</v>
       </c>
-      <c r="I179" t="n">
-        <v>1.551512149530673</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5667,9 +5128,6 @@
       <c r="H180" t="n">
         <v>13.86533808708191</v>
       </c>
-      <c r="I180" t="n">
-        <v>1.672605412983311</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5696,9 +5154,6 @@
       <c r="H181" t="n">
         <v>5.429055452346802</v>
       </c>
-      <c r="I181" t="n">
-        <v>1.359044512092013</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5725,9 +5180,6 @@
       <c r="H182" t="n">
         <v>20.0484299659729</v>
       </c>
-      <c r="I182" t="n">
-        <v>1.499107781446883</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5754,9 +5206,6 @@
       <c r="H183" t="n">
         <v>12.96607303619385</v>
       </c>
-      <c r="I183" t="n">
-        <v>1.552529635346054</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5783,9 +5232,6 @@
       <c r="H184" t="n">
         <v>6.337844133377075</v>
       </c>
-      <c r="I184" t="n">
-        <v>1.556000515579594</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5812,9 +5258,6 @@
       <c r="H185" t="n">
         <v>18.6557354927063</v>
       </c>
-      <c r="I185" t="n">
-        <v>1.496136239343436</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5841,9 +5284,6 @@
       <c r="H186" t="n">
         <v>9.553119659423828</v>
       </c>
-      <c r="I186" t="n">
-        <v>1.574226967417201</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5870,9 +5310,6 @@
       <c r="H187" t="n">
         <v>9.464617729187012</v>
       </c>
-      <c r="I187" t="n">
-        <v>1.625601513082906</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5899,9 +5336,6 @@
       <c r="H188" t="n">
         <v>21.08414101600647</v>
       </c>
-      <c r="I188" t="n">
-        <v>1.537095447116647</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5928,9 +5362,6 @@
       <c r="H189" t="n">
         <v>9.861114501953125</v>
       </c>
-      <c r="I189" t="n">
-        <v>1.519183162150727</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5957,9 +5388,6 @@
       <c r="H190" t="n">
         <v>9.801674604415894</v>
       </c>
-      <c r="I190" t="n">
-        <v>1.567168967191658</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5986,9 +5414,6 @@
       <c r="H191" t="n">
         <v>18.48388862609863</v>
       </c>
-      <c r="I191" t="n">
-        <v>1.574998323403547</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6015,9 +5440,6 @@
       <c r="H192" t="n">
         <v>7.602181196212769</v>
       </c>
-      <c r="I192" t="n">
-        <v>1.452245033863957</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6044,9 +5466,6 @@
       <c r="H193" t="n">
         <v>5.730463981628418</v>
       </c>
-      <c r="I193" t="n">
-        <v>1.623532206001534</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6073,9 +5492,6 @@
       <c r="H194" t="n">
         <v>18.94026923179626</v>
       </c>
-      <c r="I194" t="n">
-        <v>1.623743539394304</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6102,9 +5518,6 @@
       <c r="H195" t="n">
         <v>10.70278549194336</v>
       </c>
-      <c r="I195" t="n">
-        <v>1.372910240068452</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6131,9 +5544,6 @@
       <c r="H196" t="n">
         <v>5.979542255401611</v>
       </c>
-      <c r="I196" t="n">
-        <v>1.468486050445535</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6160,9 +5570,6 @@
       <c r="H197" t="n">
         <v>19.62836122512817</v>
       </c>
-      <c r="I197" t="n">
-        <v>1.646385358394239</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6189,9 +5596,6 @@
       <c r="H198" t="n">
         <v>8.256138563156128</v>
       </c>
-      <c r="I198" t="n">
-        <v>1.941776310567189</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6218,9 +5622,6 @@
       <c r="H199" t="n">
         <v>7.346886873245239</v>
       </c>
-      <c r="I199" t="n">
-        <v>1.581397220425272</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6247,9 +5648,6 @@
       <c r="H200" t="n">
         <v>18.7932722568512</v>
       </c>
-      <c r="I200" t="n">
-        <v>1.907476149948276</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6276,9 +5674,6 @@
       <c r="H201" t="n">
         <v>7.78904390335083</v>
       </c>
-      <c r="I201" t="n">
-        <v>1.87365847291398</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6305,9 +5700,6 @@
       <c r="H202" t="n">
         <v>5.31122088432312</v>
       </c>
-      <c r="I202" t="n">
-        <v>1.615587298947746</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6334,9 +5726,6 @@
       <c r="H203" t="n">
         <v>19.55089855194092</v>
       </c>
-      <c r="I203" t="n">
-        <v>1.941853450540868</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6363,9 +5752,6 @@
       <c r="H204" t="n">
         <v>12.29163980484009</v>
       </c>
-      <c r="I204" t="n">
-        <v>1.7543195276967</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6392,9 +5778,6 @@
       <c r="H205" t="n">
         <v>6.428011417388916</v>
       </c>
-      <c r="I205" t="n">
-        <v>1.75289616551385</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6421,9 +5804,6 @@
       <c r="H206" t="n">
         <v>20.50181078910828</v>
       </c>
-      <c r="I206" t="n">
-        <v>1.608099340074985</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6450,9 +5830,6 @@
       <c r="H207" t="n">
         <v>10.4089367389679</v>
       </c>
-      <c r="I207" t="n">
-        <v>1.650144470315774</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6479,9 +5856,6 @@
       <c r="H208" t="n">
         <v>7.573457479476929</v>
       </c>
-      <c r="I208" t="n">
-        <v>2.031353412550345</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6508,9 +5882,6 @@
       <c r="H209" t="n">
         <v>17.21973633766174</v>
       </c>
-      <c r="I209" t="n">
-        <v>1.84278543479986</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6537,9 +5908,6 @@
       <c r="H210" t="n">
         <v>6.419152021408081</v>
       </c>
-      <c r="I210" t="n">
-        <v>1.93774293561359</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6566,9 +5934,6 @@
       <c r="H211" t="n">
         <v>6.351669788360596</v>
       </c>
-      <c r="I211" t="n">
-        <v>1.787023553599303</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6595,9 +5960,6 @@
       <c r="H212" t="n">
         <v>20.47718048095703</v>
       </c>
-      <c r="I212" t="n">
-        <v>1.735051908578162</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6624,9 +5986,6 @@
       <c r="H213" t="n">
         <v>7.396378993988037</v>
       </c>
-      <c r="I213" t="n">
-        <v>1.941143530799855</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6653,9 +6012,6 @@
       <c r="H214" t="n">
         <v>5.815531730651855</v>
       </c>
-      <c r="I214" t="n">
-        <v>2.083191498218653</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6682,9 +6038,6 @@
       <c r="H215" t="n">
         <v>15.88911700248718</v>
       </c>
-      <c r="I215" t="n">
-        <v>1.836638405755173</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6711,9 +6064,6 @@
       <c r="H216" t="n">
         <v>7.950126647949219</v>
       </c>
-      <c r="I216" t="n">
-        <v>1.905644173320615</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6740,9 +6090,6 @@
       <c r="H217" t="n">
         <v>6.07927942276001</v>
       </c>
-      <c r="I217" t="n">
-        <v>1.771828299628226</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6769,9 +6116,6 @@
       <c r="H218" t="n">
         <v>19.13944578170776</v>
       </c>
-      <c r="I218" t="n">
-        <v>2.237883572248604</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6798,9 +6142,6 @@
       <c r="H219" t="n">
         <v>6.864338636398315</v>
       </c>
-      <c r="I219" t="n">
-        <v>2.008900309606792</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6827,9 +6168,6 @@
       <c r="H220" t="n">
         <v>4.706246376037598</v>
       </c>
-      <c r="I220" t="n">
-        <v>1.96988572402803</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6856,9 +6194,6 @@
       <c r="H221" t="n">
         <v>19.34419107437134</v>
       </c>
-      <c r="I221" t="n">
-        <v>2.350227783471023</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6885,9 +6220,6 @@
       <c r="H222" t="n">
         <v>6.776947975158691</v>
       </c>
-      <c r="I222" t="n">
-        <v>1.886517771518599</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6914,9 +6246,6 @@
       <c r="H223" t="n">
         <v>5.503432273864746</v>
       </c>
-      <c r="I223" t="n">
-        <v>1.930495925562643</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6943,9 +6272,6 @@
       <c r="H224" t="n">
         <v>20.43216180801392</v>
       </c>
-      <c r="I224" t="n">
-        <v>1.521799911110868</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6972,9 +6298,6 @@
       <c r="H225" t="n">
         <v>7.856412649154663</v>
       </c>
-      <c r="I225" t="n">
-        <v>2.033846346601726</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7001,9 +6324,6 @@
       <c r="H226" t="n">
         <v>6.339828968048096</v>
       </c>
-      <c r="I226" t="n">
-        <v>1.842929004152012</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7030,9 +6350,6 @@
       <c r="H227" t="n">
         <v>20.25816965103149</v>
       </c>
-      <c r="I227" t="n">
-        <v>2.837170749791181</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7059,9 +6376,6 @@
       <c r="H228" t="n">
         <v>6.965949773788452</v>
       </c>
-      <c r="I228" t="n">
-        <v>2.464124964370424</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7088,9 +6402,6 @@
       <c r="H229" t="n">
         <v>5.694794178009033</v>
       </c>
-      <c r="I229" t="n">
-        <v>2.450497818095039</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7117,9 +6428,6 @@
       <c r="H230" t="n">
         <v>18.50775957107544</v>
       </c>
-      <c r="I230" t="n">
-        <v>2.67132261602434</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7146,9 +6454,6 @@
       <c r="H231" t="n">
         <v>7.10028600692749</v>
       </c>
-      <c r="I231" t="n">
-        <v>2.191526828623031</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7175,9 +6480,6 @@
       <c r="H232" t="n">
         <v>4.980474472045898</v>
       </c>
-      <c r="I232" t="n">
-        <v>2.206757044099307</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7204,9 +6506,6 @@
       <c r="H233" t="n">
         <v>21.86699461936951</v>
       </c>
-      <c r="I233" t="n">
-        <v>2.594083981932014</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7233,9 +6532,6 @@
       <c r="H234" t="n">
         <v>7.570929527282715</v>
       </c>
-      <c r="I234" t="n">
-        <v>2.224508391791015</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7262,9 +6558,6 @@
       <c r="H235" t="n">
         <v>5.299587726593018</v>
       </c>
-      <c r="I235" t="n">
-        <v>1.79164622429243</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7291,9 +6584,6 @@
       <c r="H236" t="n">
         <v>16.39801836013794</v>
       </c>
-      <c r="I236" t="n">
-        <v>2.289482458636063</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7320,9 +6610,6 @@
       <c r="H237" t="n">
         <v>8.261522054672241</v>
       </c>
-      <c r="I237" t="n">
-        <v>2.257042254874068</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7349,9 +6636,6 @@
       <c r="H238" t="n">
         <v>6.87639856338501</v>
       </c>
-      <c r="I238" t="n">
-        <v>1.807463765425407</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7378,9 +6662,6 @@
       <c r="H239" t="n">
         <v>20.92528867721558</v>
       </c>
-      <c r="I239" t="n">
-        <v>3.265367380685658</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7407,9 +6688,6 @@
       <c r="H240" t="n">
         <v>7.768702268600464</v>
       </c>
-      <c r="I240" t="n">
-        <v>2.439345051085272</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7436,9 +6714,6 @@
       <c r="H241" t="n">
         <v>6.586241245269775</v>
       </c>
-      <c r="I241" t="n">
-        <v>2.270563257963963</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7465,9 +6740,6 @@
       <c r="H242" t="n">
         <v>17.58720469474792</v>
       </c>
-      <c r="I242" t="n">
-        <v>2.4415070521036</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7494,9 +6766,6 @@
       <c r="H243" t="n">
         <v>8.524283170700073</v>
       </c>
-      <c r="I243" t="n">
-        <v>2.660201415685261</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7523,9 +6792,6 @@
       <c r="H244" t="n">
         <v>6.538906097412109</v>
       </c>
-      <c r="I244" t="n">
-        <v>1.727188438983517</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7552,9 +6818,6 @@
       <c r="H245" t="n">
         <v>18.58559107780457</v>
       </c>
-      <c r="I245" t="n">
-        <v>1.361166129849317</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7581,9 +6844,6 @@
       <c r="H246" t="n">
         <v>17.48880314826965</v>
       </c>
-      <c r="I246" t="n">
-        <v>1.563760066747096</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7610,9 +6870,6 @@
       <c r="H247" t="n">
         <v>12.16782307624817</v>
       </c>
-      <c r="I247" t="n">
-        <v>1.481302895000477</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7639,9 +6896,6 @@
       <c r="H248" t="n">
         <v>18.91390943527222</v>
       </c>
-      <c r="I248" t="n">
-        <v>1.483876504462438</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7668,9 +6922,6 @@
       <c r="H249" t="n">
         <v>13.72455072402954</v>
       </c>
-      <c r="I249" t="n">
-        <v>1.339322185118164</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -7697,9 +6948,6 @@
       <c r="H250" t="n">
         <v>8.223010778427124</v>
       </c>
-      <c r="I250" t="n">
-        <v>1.428508822079634</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -7726,9 +6974,6 @@
       <c r="H251" t="n">
         <v>19.49174380302429</v>
       </c>
-      <c r="I251" t="n">
-        <v>1.451219509219698</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -7755,9 +7000,6 @@
       <c r="H252" t="n">
         <v>11.88705468177795</v>
       </c>
-      <c r="I252" t="n">
-        <v>1.454090350520188</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7784,9 +7026,6 @@
       <c r="H253" t="n">
         <v>8.617143154144287</v>
       </c>
-      <c r="I253" t="n">
-        <v>1.612243788282286</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -7813,9 +7052,6 @@
       <c r="H254" t="n">
         <v>18.53290438652039</v>
       </c>
-      <c r="I254" t="n">
-        <v>1.498469754386945</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7842,9 +7078,6 @@
       <c r="H255" t="n">
         <v>11.39754390716553</v>
       </c>
-      <c r="I255" t="n">
-        <v>1.701589196482115</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7871,9 +7104,6 @@
       <c r="H256" t="n">
         <v>10.05690383911133</v>
       </c>
-      <c r="I256" t="n">
-        <v>1.540450364574772</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7900,9 +7130,6 @@
       <c r="H257" t="n">
         <v>19.43254208564758</v>
       </c>
-      <c r="I257" t="n">
-        <v>1.431419655072197</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -7929,9 +7156,6 @@
       <c r="H258" t="n">
         <v>12.61694049835205</v>
       </c>
-      <c r="I258" t="n">
-        <v>1.682470999909397</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7958,9 +7182,6 @@
       <c r="H259" t="n">
         <v>14.52799654006958</v>
       </c>
-      <c r="I259" t="n">
-        <v>1.542820086949011</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7987,9 +7208,6 @@
       <c r="H260" t="n">
         <v>19.94882011413574</v>
       </c>
-      <c r="I260" t="n">
-        <v>1.483268139627507</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8016,9 +7234,6 @@
       <c r="H261" t="n">
         <v>11.00567936897278</v>
       </c>
-      <c r="I261" t="n">
-        <v>1.5618552356006</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8045,9 +7260,6 @@
       <c r="H262" t="n">
         <v>16.34381818771362</v>
       </c>
-      <c r="I262" t="n">
-        <v>1.647191512357699</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8074,9 +7286,6 @@
       <c r="H263" t="n">
         <v>19.86721134185791</v>
       </c>
-      <c r="I263" t="n">
-        <v>1.66427236841908</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8103,9 +7312,6 @@
       <c r="H264" t="n">
         <v>11.22423005104065</v>
       </c>
-      <c r="I264" t="n">
-        <v>1.667245458097432</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8132,9 +7338,6 @@
       <c r="H265" t="n">
         <v>7.688845872879028</v>
       </c>
-      <c r="I265" t="n">
-        <v>1.551136859104247</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8161,9 +7364,6 @@
       <c r="H266" t="n">
         <v>16.09970808029175</v>
       </c>
-      <c r="I266" t="n">
-        <v>1.509239682519536</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8190,9 +7390,6 @@
       <c r="H267" t="n">
         <v>11.90386629104614</v>
       </c>
-      <c r="I267" t="n">
-        <v>1.638572211707613</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8219,9 +7416,6 @@
       <c r="H268" t="n">
         <v>10.31887435913086</v>
       </c>
-      <c r="I268" t="n">
-        <v>1.624015976131319</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8248,9 +7442,6 @@
       <c r="H269" t="n">
         <v>17.96464920043945</v>
       </c>
-      <c r="I269" t="n">
-        <v>1.548015620625761</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8277,9 +7468,6 @@
       <c r="H270" t="n">
         <v>9.324172258377075</v>
       </c>
-      <c r="I270" t="n">
-        <v>1.523194909067692</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8306,9 +7494,6 @@
       <c r="H271" t="n">
         <v>7.997337579727173</v>
       </c>
-      <c r="I271" t="n">
-        <v>1.640693473924664</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8335,9 +7520,6 @@
       <c r="H272" t="n">
         <v>18.53715753555298</v>
       </c>
-      <c r="I272" t="n">
-        <v>1.823575521455673</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8364,9 +7546,6 @@
       <c r="H273" t="n">
         <v>8.053552389144897</v>
       </c>
-      <c r="I273" t="n">
-        <v>1.696165313904959</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8393,9 +7572,6 @@
       <c r="H274" t="n">
         <v>13.38821983337402</v>
       </c>
-      <c r="I274" t="n">
-        <v>1.609222892062658</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -8422,9 +7598,6 @@
       <c r="H275" t="n">
         <v>18.97721266746521</v>
       </c>
-      <c r="I275" t="n">
-        <v>1.667027048926781</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -8451,9 +7624,6 @@
       <c r="H276" t="n">
         <v>8.278786182403564</v>
       </c>
-      <c r="I276" t="n">
-        <v>1.808596463340475</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -8480,9 +7650,6 @@
       <c r="H277" t="n">
         <v>6.45686149597168</v>
       </c>
-      <c r="I277" t="n">
-        <v>1.746112363158751</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -8509,9 +7676,6 @@
       <c r="H278" t="n">
         <v>20.11887073516846</v>
       </c>
-      <c r="I278" t="n">
-        <v>1.727843886034936</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -8538,9 +7702,6 @@
       <c r="H279" t="n">
         <v>8.107388734817505</v>
       </c>
-      <c r="I279" t="n">
-        <v>1.713463130062301</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -8567,9 +7728,6 @@
       <c r="H280" t="n">
         <v>6.302227258682251</v>
       </c>
-      <c r="I280" t="n">
-        <v>1.938428759590671</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -8596,9 +7754,6 @@
       <c r="H281" t="n">
         <v>18.71215415000916</v>
       </c>
-      <c r="I281" t="n">
-        <v>1.756969720654195</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -8625,9 +7780,6 @@
       <c r="H282" t="n">
         <v>13.36815094947815</v>
       </c>
-      <c r="I282" t="n">
-        <v>1.810352197550072</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -8654,9 +7806,6 @@
       <c r="H283" t="n">
         <v>7.808582305908203</v>
       </c>
-      <c r="I283" t="n">
-        <v>2.015674919433564</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -8683,9 +7832,6 @@
       <c r="H284" t="n">
         <v>19.2412965297699</v>
       </c>
-      <c r="I284" t="n">
-        <v>1.985914107163124</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -8712,9 +7858,6 @@
       <c r="H285" t="n">
         <v>8.078411102294922</v>
       </c>
-      <c r="I285" t="n">
-        <v>2.043442716079479</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -8741,9 +7884,6 @@
       <c r="H286" t="n">
         <v>5.441158771514893</v>
       </c>
-      <c r="I286" t="n">
-        <v>1.651405085194</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -8770,9 +7910,6 @@
       <c r="H287" t="n">
         <v>20.32384586334229</v>
       </c>
-      <c r="I287" t="n">
-        <v>1.845721697593072</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -8799,9 +7936,6 @@
       <c r="H288" t="n">
         <v>13.41246104240417</v>
       </c>
-      <c r="I288" t="n">
-        <v>2.074129554350701</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -8828,9 +7962,6 @@
       <c r="H289" t="n">
         <v>6.240258932113647</v>
       </c>
-      <c r="I289" t="n">
-        <v>1.838395492081941</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -8857,9 +7988,6 @@
       <c r="H290" t="n">
         <v>20.45965194702148</v>
       </c>
-      <c r="I290" t="n">
-        <v>1.836754963021111</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8886,9 +8014,6 @@
       <c r="H291" t="n">
         <v>7.846194982528687</v>
       </c>
-      <c r="I291" t="n">
-        <v>2.066755556893042</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -8915,9 +8040,6 @@
       <c r="H292" t="n">
         <v>5.14210844039917</v>
       </c>
-      <c r="I292" t="n">
-        <v>1.937635508179279</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -8944,9 +8066,6 @@
       <c r="H293" t="n">
         <v>19.60760569572449</v>
       </c>
-      <c r="I293" t="n">
-        <v>1.940414726852909</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -8973,9 +8092,6 @@
       <c r="H294" t="n">
         <v>9.422320604324341</v>
       </c>
-      <c r="I294" t="n">
-        <v>2.118551352784044</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -9002,9 +8118,6 @@
       <c r="H295" t="n">
         <v>8.649746894836426</v>
       </c>
-      <c r="I295" t="n">
-        <v>2.084664613988615</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -9031,9 +8144,6 @@
       <c r="H296" t="n">
         <v>19.5167441368103</v>
       </c>
-      <c r="I296" t="n">
-        <v>1.867810488614772</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -9060,9 +8170,6 @@
       <c r="H297" t="n">
         <v>6.401111364364624</v>
       </c>
-      <c r="I297" t="n">
-        <v>2.001105581572947</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -9089,9 +8196,6 @@
       <c r="H298" t="n">
         <v>5.950112104415894</v>
       </c>
-      <c r="I298" t="n">
-        <v>2.064558419081838</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -9118,9 +8222,6 @@
       <c r="H299" t="n">
         <v>19.36669731140137</v>
       </c>
-      <c r="I299" t="n">
-        <v>2.654519032471392</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -9147,9 +8248,6 @@
       <c r="H300" t="n">
         <v>6.106890439987183</v>
       </c>
-      <c r="I300" t="n">
-        <v>2.389358412382253</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -9176,9 +8274,6 @@
       <c r="H301" t="n">
         <v>6.574799776077271</v>
       </c>
-      <c r="I301" t="n">
-        <v>2.329912240829916</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -9205,9 +8300,6 @@
       <c r="H302" t="n">
         <v>19.64760160446167</v>
       </c>
-      <c r="I302" t="n">
-        <v>2.101149584271641</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -9234,9 +8326,6 @@
       <c r="H303" t="n">
         <v>6.250455617904663</v>
       </c>
-      <c r="I303" t="n">
-        <v>2.604214186150326</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -9263,9 +8352,6 @@
       <c r="H304" t="n">
         <v>5.556976079940796</v>
       </c>
-      <c r="I304" t="n">
-        <v>2.051024666217236</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -9292,9 +8378,6 @@
       <c r="H305" t="n">
         <v>19.06841111183167</v>
       </c>
-      <c r="I305" t="n">
-        <v>2.023989697609305</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -9321,9 +8404,6 @@
       <c r="H306" t="n">
         <v>6.472429275512695</v>
       </c>
-      <c r="I306" t="n">
-        <v>2.616183598046792</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -9350,9 +8430,6 @@
       <c r="H307" t="n">
         <v>5.714388132095337</v>
       </c>
-      <c r="I307" t="n">
-        <v>2.130465149177628</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -9379,9 +8456,6 @@
       <c r="H308" t="n">
         <v>20.03422927856445</v>
       </c>
-      <c r="I308" t="n">
-        <v>2.932459129565411</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -9408,9 +8482,6 @@
       <c r="H309" t="n">
         <v>7.460345029830933</v>
       </c>
-      <c r="I309" t="n">
-        <v>2.335539807167565</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -9437,9 +8508,6 @@
       <c r="H310" t="n">
         <v>5.538766860961914</v>
       </c>
-      <c r="I310" t="n">
-        <v>2.021067207835399</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -9466,9 +8534,6 @@
       <c r="H311" t="n">
         <v>21.0926468372345</v>
       </c>
-      <c r="I311" t="n">
-        <v>2.637763636918562</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -9495,9 +8560,6 @@
       <c r="H312" t="n">
         <v>6.527353763580322</v>
       </c>
-      <c r="I312" t="n">
-        <v>2.470640462921948</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -9524,9 +8586,6 @@
       <c r="H313" t="n">
         <v>5.667230129241943</v>
       </c>
-      <c r="I313" t="n">
-        <v>2.334744124360202</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -9553,9 +8612,6 @@
       <c r="H314" t="n">
         <v>22.35760712623596</v>
       </c>
-      <c r="I314" t="n">
-        <v>3.221601721920263</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -9582,9 +8638,6 @@
       <c r="H315" t="n">
         <v>8.547414779663086</v>
       </c>
-      <c r="I315" t="n">
-        <v>2.52268640767354</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -9611,9 +8664,6 @@
       <c r="H316" t="n">
         <v>5.277845621109009</v>
       </c>
-      <c r="I316" t="n">
-        <v>1.733340773713769</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -9640,9 +8690,6 @@
       <c r="H317" t="n">
         <v>17.72958517074585</v>
       </c>
-      <c r="I317" t="n">
-        <v>3.2659827052685</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -9669,9 +8716,6 @@
       <c r="H318" t="n">
         <v>9.358130931854248</v>
       </c>
-      <c r="I318" t="n">
-        <v>1.971516556332246</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -9698,9 +8742,6 @@
       <c r="H319" t="n">
         <v>6.699135065078735</v>
       </c>
-      <c r="I319" t="n">
-        <v>2.393455339693149</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -9727,9 +8768,6 @@
       <c r="H320" t="n">
         <v>21.31929588317871</v>
       </c>
-      <c r="I320" t="n">
-        <v>2.962691983751158</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -9756,9 +8794,6 @@
       <c r="H321" t="n">
         <v>7.601566791534424</v>
       </c>
-      <c r="I321" t="n">
-        <v>2.567002714110919</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -9785,9 +8820,6 @@
       <c r="H322" t="n">
         <v>7.227812528610229</v>
       </c>
-      <c r="I322" t="n">
-        <v>1.881192068166071</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -9814,9 +8846,6 @@
       <c r="H323" t="n">
         <v>19.18224501609802</v>
       </c>
-      <c r="I323" t="n">
-        <v>2.858454860798885</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -9843,9 +8872,6 @@
       <c r="H324" t="n">
         <v>8.177013635635376</v>
       </c>
-      <c r="I324" t="n">
-        <v>2.366562030820314</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -9872,9 +8898,6 @@
       <c r="H325" t="n">
         <v>5.904866695404053</v>
       </c>
-      <c r="I325" t="n">
-        <v>2.102780049417727</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -9901,9 +8924,6 @@
       <c r="H326" t="n">
         <v>18.5900661945343</v>
       </c>
-      <c r="I326" t="n">
-        <v>1.442853439130815</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -9930,9 +8950,6 @@
       <c r="H327" t="n">
         <v>13.34264802932739</v>
       </c>
-      <c r="I327" t="n">
-        <v>1.755998151195569</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -9959,9 +8976,6 @@
       <c r="H328" t="n">
         <v>11.01619100570679</v>
       </c>
-      <c r="I328" t="n">
-        <v>1.675177940929577</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -9988,9 +9002,6 @@
       <c r="H329" t="n">
         <v>19.62431311607361</v>
       </c>
-      <c r="I329" t="n">
-        <v>1.27085678294579</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -10017,9 +9028,6 @@
       <c r="H330" t="n">
         <v>19.71254181861877</v>
       </c>
-      <c r="I330" t="n">
-        <v>1.485123106957475</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -10046,9 +9054,6 @@
       <c r="H331" t="n">
         <v>9.056796312332153</v>
       </c>
-      <c r="I331" t="n">
-        <v>1.5171355100315</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -10075,9 +9080,6 @@
       <c r="H332" t="n">
         <v>19.65106821060181</v>
       </c>
-      <c r="I332" t="n">
-        <v>1.411893326203692</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -10104,9 +9106,6 @@
       <c r="H333" t="n">
         <v>15.66730070114136</v>
       </c>
-      <c r="I333" t="n">
-        <v>1.594328906389988</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -10133,9 +9132,6 @@
       <c r="H334" t="n">
         <v>10.36908006668091</v>
       </c>
-      <c r="I334" t="n">
-        <v>1.518030595650915</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -10162,9 +9158,6 @@
       <c r="H335" t="n">
         <v>19.10670042037964</v>
       </c>
-      <c r="I335" t="n">
-        <v>1.719579948675962</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -10191,9 +9184,6 @@
       <c r="H336" t="n">
         <v>10.51716470718384</v>
       </c>
-      <c r="I336" t="n">
-        <v>1.732723945965625</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -10220,9 +9210,6 @@
       <c r="H337" t="n">
         <v>10.03722167015076</v>
       </c>
-      <c r="I337" t="n">
-        <v>1.615896205264993</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -10249,9 +9236,6 @@
       <c r="H338" t="n">
         <v>20.21253204345703</v>
       </c>
-      <c r="I338" t="n">
-        <v>1.646958383451959</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -10278,9 +9262,6 @@
       <c r="H339" t="n">
         <v>13.58238768577576</v>
       </c>
-      <c r="I339" t="n">
-        <v>1.611925316803887</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -10307,9 +9288,6 @@
       <c r="H340" t="n">
         <v>12.46925210952759</v>
       </c>
-      <c r="I340" t="n">
-        <v>1.854395580981266</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -10336,9 +9314,6 @@
       <c r="H341" t="n">
         <v>20.38962960243225</v>
       </c>
-      <c r="I341" t="n">
-        <v>1.494630913090403</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -10365,9 +9340,6 @@
       <c r="H342" t="n">
         <v>13.39562773704529</v>
       </c>
-      <c r="I342" t="n">
-        <v>1.721375869054961</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -10394,9 +9366,6 @@
       <c r="H343" t="n">
         <v>12.30683374404907</v>
       </c>
-      <c r="I343" t="n">
-        <v>1.642627036359346</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -10423,9 +9392,6 @@
       <c r="H344" t="n">
         <v>20.6866352558136</v>
       </c>
-      <c r="I344" t="n">
-        <v>1.753319414377835</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -10452,9 +9418,6 @@
       <c r="H345" t="n">
         <v>10.0028703212738</v>
       </c>
-      <c r="I345" t="n">
-        <v>1.723138709741531</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -10481,9 +9444,6 @@
       <c r="H346" t="n">
         <v>8.336049556732178</v>
       </c>
-      <c r="I346" t="n">
-        <v>1.902425987697998</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -10510,9 +9470,6 @@
       <c r="H347" t="n">
         <v>21.29009366035461</v>
       </c>
-      <c r="I347" t="n">
-        <v>1.618750307095731</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -10539,9 +9496,6 @@
       <c r="H348" t="n">
         <v>10.76768326759338</v>
       </c>
-      <c r="I348" t="n">
-        <v>1.742798111503136</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -10568,9 +9522,6 @@
       <c r="H349" t="n">
         <v>11.2251980304718</v>
       </c>
-      <c r="I349" t="n">
-        <v>1.859408135781597</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -10597,9 +9548,6 @@
       <c r="H350" t="n">
         <v>21.63749933242798</v>
       </c>
-      <c r="I350" t="n">
-        <v>1.851328787032564</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -10626,9 +9574,6 @@
       <c r="H351" t="n">
         <v>12.16837072372437</v>
       </c>
-      <c r="I351" t="n">
-        <v>1.827999982291205</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -10655,9 +9600,6 @@
       <c r="H352" t="n">
         <v>9.279600143432617</v>
       </c>
-      <c r="I352" t="n">
-        <v>1.737825122294459</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -10684,9 +9626,6 @@
       <c r="H353" t="n">
         <v>18.36234498023987</v>
       </c>
-      <c r="I353" t="n">
-        <v>1.676508652376451</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -10713,9 +9652,6 @@
       <c r="H354" t="n">
         <v>12.2093026638031</v>
       </c>
-      <c r="I354" t="n">
-        <v>1.934767211414523</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -10742,9 +9678,6 @@
       <c r="H355" t="n">
         <v>6.425312042236328</v>
       </c>
-      <c r="I355" t="n">
-        <v>1.966776010449294</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -10771,9 +9704,6 @@
       <c r="H356" t="n">
         <v>19.8434944152832</v>
       </c>
-      <c r="I356" t="n">
-        <v>1.221907263511303</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -10800,9 +9730,6 @@
       <c r="H357" t="n">
         <v>9.702034950256348</v>
       </c>
-      <c r="I357" t="n">
-        <v>1.723467156487722</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -10829,9 +9756,6 @@
       <c r="H358" t="n">
         <v>10.28259491920471</v>
       </c>
-      <c r="I358" t="n">
-        <v>1.841853795805407</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -10858,9 +9782,6 @@
       <c r="H359" t="n">
         <v>19.96302199363708</v>
       </c>
-      <c r="I359" t="n">
-        <v>1.262447077458622</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -10887,9 +9808,6 @@
       <c r="H360" t="n">
         <v>14.4600841999054</v>
       </c>
-      <c r="I360" t="n">
-        <v>1.655010736484357</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -10916,9 +9834,6 @@
       <c r="H361" t="n">
         <v>7.428490400314331</v>
       </c>
-      <c r="I361" t="n">
-        <v>1.781746230209595</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -10945,9 +9860,6 @@
       <c r="H362" t="n">
         <v>19.01196956634521</v>
       </c>
-      <c r="I362" t="n">
-        <v>1.843699630849594</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -10974,9 +9886,6 @@
       <c r="H363" t="n">
         <v>7.470714569091797</v>
       </c>
-      <c r="I363" t="n">
-        <v>2.041890420567607</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -11003,9 +9912,6 @@
       <c r="H364" t="n">
         <v>6.018735885620117</v>
       </c>
-      <c r="I364" t="n">
-        <v>1.722132282822828</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -11032,9 +9938,6 @@
       <c r="H365" t="n">
         <v>20.35207796096802</v>
       </c>
-      <c r="I365" t="n">
-        <v>1.57163271557219</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -11061,9 +9964,6 @@
       <c r="H366" t="n">
         <v>11.98767304420471</v>
       </c>
-      <c r="I366" t="n">
-        <v>1.837213532906155</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -11090,9 +9990,6 @@
       <c r="H367" t="n">
         <v>8.084799528121948</v>
       </c>
-      <c r="I367" t="n">
-        <v>2.079603721340601</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -11119,9 +10016,6 @@
       <c r="H368" t="n">
         <v>20.41448521614075</v>
       </c>
-      <c r="I368" t="n">
-        <v>1.635301991348729</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -11148,9 +10042,6 @@
       <c r="H369" t="n">
         <v>9.512022733688354</v>
       </c>
-      <c r="I369" t="n">
-        <v>1.896560921581652</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -11177,9 +10068,6 @@
       <c r="H370" t="n">
         <v>5.732930183410645</v>
       </c>
-      <c r="I370" t="n">
-        <v>2.158297803832599</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -11206,9 +10094,6 @@
       <c r="H371" t="n">
         <v>21.17822241783142</v>
       </c>
-      <c r="I371" t="n">
-        <v>2.129651579887883</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -11235,9 +10120,6 @@
       <c r="H372" t="n">
         <v>9.282021760940552</v>
       </c>
-      <c r="I372" t="n">
-        <v>2.010829936280276</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -11264,9 +10146,6 @@
       <c r="H373" t="n">
         <v>5.100943326950073</v>
       </c>
-      <c r="I373" t="n">
-        <v>1.925427093126724</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -11293,9 +10172,6 @@
       <c r="H374" t="n">
         <v>21.42516756057739</v>
       </c>
-      <c r="I374" t="n">
-        <v>1.823783680430757</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -11322,9 +10198,6 @@
       <c r="H375" t="n">
         <v>9.542293787002563</v>
       </c>
-      <c r="I375" t="n">
-        <v>2.16179112600146</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -11351,9 +10224,6 @@
       <c r="H376" t="n">
         <v>10.14403414726257</v>
       </c>
-      <c r="I376" t="n">
-        <v>1.870710312427052</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -11380,9 +10250,6 @@
       <c r="H377" t="n">
         <v>21.40475177764893</v>
       </c>
-      <c r="I377" t="n">
-        <v>1.867465649787432</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -11409,9 +10276,6 @@
       <c r="H378" t="n">
         <v>8.655588626861572</v>
       </c>
-      <c r="I378" t="n">
-        <v>1.982857147076549</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -11438,9 +10302,6 @@
       <c r="H379" t="n">
         <v>8.088337659835815</v>
       </c>
-      <c r="I379" t="n">
-        <v>2.246517011851278</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -11467,9 +10328,6 @@
       <c r="H380" t="n">
         <v>19.36314964294434</v>
       </c>
-      <c r="I380" t="n">
-        <v>2.430784182051467</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -11496,9 +10354,6 @@
       <c r="H381" t="n">
         <v>7.640395641326904</v>
       </c>
-      <c r="I381" t="n">
-        <v>1.527064280702888</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -11525,9 +10380,6 @@
       <c r="H382" t="n">
         <v>6.168562650680542</v>
       </c>
-      <c r="I382" t="n">
-        <v>1.965848175408562</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -11554,9 +10406,6 @@
       <c r="H383" t="n">
         <v>20.90826010704041</v>
       </c>
-      <c r="I383" t="n">
-        <v>2.403170942260486</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -11583,9 +10432,6 @@
       <c r="H384" t="n">
         <v>9.933587789535522</v>
       </c>
-      <c r="I384" t="n">
-        <v>2.494641508972774</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -11612,9 +10458,6 @@
       <c r="H385" t="n">
         <v>6.251245021820068</v>
       </c>
-      <c r="I385" t="n">
-        <v>1.701451929058476</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -11641,9 +10484,6 @@
       <c r="H386" t="n">
         <v>20.91625666618347</v>
       </c>
-      <c r="I386" t="n">
-        <v>2.279319515611616</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -11670,9 +10510,6 @@
       <c r="H387" t="n">
         <v>8.547526121139526</v>
       </c>
-      <c r="I387" t="n">
-        <v>2.09489088165559</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -11699,9 +10536,6 @@
       <c r="H388" t="n">
         <v>6.350529909133911</v>
       </c>
-      <c r="I388" t="n">
-        <v>1.905690370578998</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -11728,9 +10562,6 @@
       <c r="H389" t="n">
         <v>19.48485612869263</v>
       </c>
-      <c r="I389" t="n">
-        <v>2.569458887029963</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -11757,9 +10588,6 @@
       <c r="H390" t="n">
         <v>7.813825607299805</v>
       </c>
-      <c r="I390" t="n">
-        <v>2.091169009771286</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -11786,9 +10614,6 @@
       <c r="H391" t="n">
         <v>6.075268745422363</v>
       </c>
-      <c r="I391" t="n">
-        <v>2.030539680145424</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -11815,9 +10640,6 @@
       <c r="H392" t="n">
         <v>21.50201177597046</v>
       </c>
-      <c r="I392" t="n">
-        <v>2.459902023799879</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -11844,9 +10666,6 @@
       <c r="H393" t="n">
         <v>7.629031181335449</v>
       </c>
-      <c r="I393" t="n">
-        <v>2.736576690264438</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -11873,9 +10692,6 @@
       <c r="H394" t="n">
         <v>6.017549753189087</v>
       </c>
-      <c r="I394" t="n">
-        <v>1.890968501223472</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -11902,9 +10718,6 @@
       <c r="H395" t="n">
         <v>21.90186858177185</v>
       </c>
-      <c r="I395" t="n">
-        <v>2.278957422062855</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -11931,9 +10744,6 @@
       <c r="H396" t="n">
         <v>9.025158882141113</v>
       </c>
-      <c r="I396" t="n">
-        <v>1.912257050743471</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -11960,9 +10770,6 @@
       <c r="H397" t="n">
         <v>6.050642013549805</v>
       </c>
-      <c r="I397" t="n">
-        <v>2.394133748634478</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -11989,9 +10796,6 @@
       <c r="H398" t="n">
         <v>19.39967966079712</v>
       </c>
-      <c r="I398" t="n">
-        <v>2.582078560294006</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -12018,9 +10822,6 @@
       <c r="H399" t="n">
         <v>10.09238600730896</v>
       </c>
-      <c r="I399" t="n">
-        <v>1.967937251951079</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -12047,9 +10848,6 @@
       <c r="H400" t="n">
         <v>6.561893224716187</v>
       </c>
-      <c r="I400" t="n">
-        <v>1.97608443811125</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -12076,9 +10874,6 @@
       <c r="H401" t="n">
         <v>20.72213840484619</v>
       </c>
-      <c r="I401" t="n">
-        <v>1.854276700096454</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -12105,9 +10900,6 @@
       <c r="H402" t="n">
         <v>8.71455979347229</v>
       </c>
-      <c r="I402" t="n">
-        <v>2.163824001672894</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -12134,9 +10926,6 @@
       <c r="H403" t="n">
         <v>7.425112009048462</v>
       </c>
-      <c r="I403" t="n">
-        <v>2.192439767979375</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -12163,9 +10952,6 @@
       <c r="H404" t="n">
         <v>23.80434727668762</v>
       </c>
-      <c r="I404" t="n">
-        <v>2.859742137314695</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -12192,9 +10978,6 @@
       <c r="H405" t="n">
         <v>9.899104833602905</v>
       </c>
-      <c r="I405" t="n">
-        <v>2.090890575877034</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -12221,9 +11004,6 @@
       <c r="H406" t="n">
         <v>7.902430772781372</v>
       </c>
-      <c r="I406" t="n">
-        <v>1.98135269240251</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -12250,9 +11030,6 @@
       <c r="H407" t="n">
         <v>18.56814289093018</v>
       </c>
-      <c r="I407" t="n">
-        <v>1.563779733152061</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -12279,9 +11056,6 @@
       <c r="H408" t="n">
         <v>11.94864082336426</v>
       </c>
-      <c r="I408" t="n">
-        <v>1.706956009033821</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -12308,9 +11082,6 @@
       <c r="H409" t="n">
         <v>8.781562089920044</v>
       </c>
-      <c r="I409" t="n">
-        <v>1.762215158189739</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -12337,9 +11108,6 @@
       <c r="H410" t="n">
         <v>20.04835748672485</v>
       </c>
-      <c r="I410" t="n">
-        <v>1.467146982551274</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -12366,9 +11134,6 @@
       <c r="H411" t="n">
         <v>14.93580889701843</v>
       </c>
-      <c r="I411" t="n">
-        <v>1.679896553635965</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -12395,9 +11160,6 @@
       <c r="H412" t="n">
         <v>10.68570351600647</v>
       </c>
-      <c r="I412" t="n">
-        <v>1.612464686377971</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -12424,9 +11186,6 @@
       <c r="H413" t="n">
         <v>19.6961133480072</v>
       </c>
-      <c r="I413" t="n">
-        <v>1.49548731275932</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -12453,9 +11212,6 @@
       <c r="H414" t="n">
         <v>19.79517507553101</v>
       </c>
-      <c r="I414" t="n">
-        <v>1.709742752495148</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -12482,9 +11238,6 @@
       <c r="H415" t="n">
         <v>11.68876314163208</v>
       </c>
-      <c r="I415" t="n">
-        <v>1.588768824144922</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -12511,9 +11264,6 @@
       <c r="H416" t="n">
         <v>18.90077376365662</v>
       </c>
-      <c r="I416" t="n">
-        <v>1.804596715246571</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -12540,9 +11290,6 @@
       <c r="H417" t="n">
         <v>7.184458494186401</v>
       </c>
-      <c r="I417" t="n">
-        <v>1.822007552378651</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -12569,9 +11316,6 @@
       <c r="H418" t="n">
         <v>7.197146415710449</v>
       </c>
-      <c r="I418" t="n">
-        <v>1.722197369021754</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -12598,9 +11342,6 @@
       <c r="H419" t="n">
         <v>20.35946726799011</v>
       </c>
-      <c r="I419" t="n">
-        <v>1.322379338859519</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -12627,9 +11368,6 @@
       <c r="H420" t="n">
         <v>16.04329061508179</v>
       </c>
-      <c r="I420" t="n">
-        <v>1.65581981670212</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -12656,9 +11394,6 @@
       <c r="H421" t="n">
         <v>13.71393895149231</v>
       </c>
-      <c r="I421" t="n">
-        <v>2.057905934535937</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -12685,9 +11420,6 @@
       <c r="H422" t="n">
         <v>20.67058157920837</v>
       </c>
-      <c r="I422" t="n">
-        <v>1.458182125715998</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -12714,9 +11446,6 @@
       <c r="H423" t="n">
         <v>13.0432345867157</v>
       </c>
-      <c r="I423" t="n">
-        <v>1.740539254490977</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -12743,9 +11472,6 @@
       <c r="H424" t="n">
         <v>12.81198787689209</v>
       </c>
-      <c r="I424" t="n">
-        <v>1.972595895373154</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -12772,9 +11498,6 @@
       <c r="H425" t="n">
         <v>20.10149383544922</v>
       </c>
-      <c r="I425" t="n">
-        <v>1.984238731655988</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -12801,9 +11524,6 @@
       <c r="H426" t="n">
         <v>7.04764986038208</v>
       </c>
-      <c r="I426" t="n">
-        <v>1.864913620641917</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -12830,9 +11550,6 @@
       <c r="H427" t="n">
         <v>5.754195213317871</v>
       </c>
-      <c r="I427" t="n">
-        <v>1.862123706772736</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -12859,9 +11576,6 @@
       <c r="H428" t="n">
         <v>21.0962061882019</v>
       </c>
-      <c r="I428" t="n">
-        <v>1.921458165475105</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -12888,9 +11602,6 @@
       <c r="H429" t="n">
         <v>11.79808664321899</v>
       </c>
-      <c r="I429" t="n">
-        <v>1.665397909895905</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -12917,9 +11628,6 @@
       <c r="H430" t="n">
         <v>8.600848436355591</v>
       </c>
-      <c r="I430" t="n">
-        <v>1.94840344989737</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -12946,9 +11654,6 @@
       <c r="H431" t="n">
         <v>21.49051976203918</v>
       </c>
-      <c r="I431" t="n">
-        <v>1.658315383705703</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -12975,9 +11680,6 @@
       <c r="H432" t="n">
         <v>10.8195378780365</v>
       </c>
-      <c r="I432" t="n">
-        <v>2.053531919988916</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -13004,9 +11706,6 @@
       <c r="H433" t="n">
         <v>9.277451038360596</v>
       </c>
-      <c r="I433" t="n">
-        <v>1.78801350009696</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -13033,9 +11732,6 @@
       <c r="H434" t="n">
         <v>18.39921355247498</v>
       </c>
-      <c r="I434" t="n">
-        <v>1.799642315951446</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -13062,9 +11758,6 @@
       <c r="H435" t="n">
         <v>12.97906756401062</v>
       </c>
-      <c r="I435" t="n">
-        <v>2.016654832524025</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -13091,9 +11784,6 @@
       <c r="H436" t="n">
         <v>8.200584888458252</v>
       </c>
-      <c r="I436" t="n">
-        <v>1.965146302392595</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -13120,9 +11810,6 @@
       <c r="H437" t="n">
         <v>19.65498185157776</v>
       </c>
-      <c r="I437" t="n">
-        <v>1.566432631643539</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -13149,9 +11836,6 @@
       <c r="H438" t="n">
         <v>10.75876545906067</v>
       </c>
-      <c r="I438" t="n">
-        <v>1.793691514720362</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -13178,9 +11862,6 @@
       <c r="H439" t="n">
         <v>7.889676570892334</v>
       </c>
-      <c r="I439" t="n">
-        <v>1.709044611585938</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -13207,9 +11888,6 @@
       <c r="H440" t="n">
         <v>19.94353699684143</v>
       </c>
-      <c r="I440" t="n">
-        <v>1.721615592262559</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -13236,9 +11914,6 @@
       <c r="H441" t="n">
         <v>20.24882841110229</v>
       </c>
-      <c r="I441" t="n">
-        <v>2.044783687322836</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -13265,9 +11940,6 @@
       <c r="H442" t="n">
         <v>7.997435331344604</v>
       </c>
-      <c r="I442" t="n">
-        <v>1.858541421370361</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -13294,9 +11966,6 @@
       <c r="H443" t="n">
         <v>19.01428151130676</v>
       </c>
-      <c r="I443" t="n">
-        <v>1.889447397981752</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -13323,9 +11992,6 @@
       <c r="H444" t="n">
         <v>10.18814325332642</v>
       </c>
-      <c r="I444" t="n">
-        <v>1.612195658131114</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -13352,9 +12018,6 @@
       <c r="H445" t="n">
         <v>5.914186716079712</v>
       </c>
-      <c r="I445" t="n">
-        <v>1.872383916441396</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -13381,9 +12044,6 @@
       <c r="H446" t="n">
         <v>20.34618639945984</v>
       </c>
-      <c r="I446" t="n">
-        <v>1.931335250195479</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -13410,9 +12070,6 @@
       <c r="H447" t="n">
         <v>12.4763388633728</v>
       </c>
-      <c r="I447" t="n">
-        <v>2.088245879075886</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -13439,9 +12096,6 @@
       <c r="H448" t="n">
         <v>8.824724674224854</v>
       </c>
-      <c r="I448" t="n">
-        <v>1.931354803074924</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -13468,9 +12122,6 @@
       <c r="H449" t="n">
         <v>20.55192232131958</v>
       </c>
-      <c r="I449" t="n">
-        <v>1.876256580398956</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -13497,9 +12148,6 @@
       <c r="H450" t="n">
         <v>8.547325134277344</v>
       </c>
-      <c r="I450" t="n">
-        <v>2.243173548543071</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -13526,9 +12174,6 @@
       <c r="H451" t="n">
         <v>7.722682952880859</v>
       </c>
-      <c r="I451" t="n">
-        <v>2.198154360863326</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -13555,9 +12200,6 @@
       <c r="H452" t="n">
         <v>21.28798198699951</v>
       </c>
-      <c r="I452" t="n">
-        <v>2.166243869643911</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -13584,9 +12226,6 @@
       <c r="H453" t="n">
         <v>7.923437833786011</v>
       </c>
-      <c r="I453" t="n">
-        <v>2.071146150704113</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -13613,9 +12252,6 @@
       <c r="H454" t="n">
         <v>6.525954961776733</v>
       </c>
-      <c r="I454" t="n">
-        <v>1.847902877521499</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -13642,9 +12278,6 @@
       <c r="H455" t="n">
         <v>22.01226496696472</v>
       </c>
-      <c r="I455" t="n">
-        <v>2.118168142559949</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -13671,9 +12304,6 @@
       <c r="H456" t="n">
         <v>7.519136667251587</v>
       </c>
-      <c r="I456" t="n">
-        <v>2.064586754132589</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -13700,9 +12330,6 @@
       <c r="H457" t="n">
         <v>7.383538007736206</v>
       </c>
-      <c r="I457" t="n">
-        <v>2.193216261224141</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -13729,9 +12356,6 @@
       <c r="H458" t="n">
         <v>22.08034801483154</v>
       </c>
-      <c r="I458" t="n">
-        <v>2.276342851218907</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -13758,9 +12382,6 @@
       <c r="H459" t="n">
         <v>7.623044013977051</v>
       </c>
-      <c r="I459" t="n">
-        <v>1.952287999712928</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -13787,9 +12408,6 @@
       <c r="H460" t="n">
         <v>10.97689723968506</v>
       </c>
-      <c r="I460" t="n">
-        <v>2.534115552713255</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -13816,9 +12434,6 @@
       <c r="H461" t="n">
         <v>19.3971152305603</v>
       </c>
-      <c r="I461" t="n">
-        <v>2.17709366609742</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -13845,9 +12460,6 @@
       <c r="H462" t="n">
         <v>8.068919897079468</v>
       </c>
-      <c r="I462" t="n">
-        <v>2.342647278386681</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -13874,9 +12486,6 @@
       <c r="H463" t="n">
         <v>6.596467018127441</v>
       </c>
-      <c r="I463" t="n">
-        <v>2.039203264559691</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -13903,9 +12512,6 @@
       <c r="H464" t="n">
         <v>21.11599731445312</v>
       </c>
-      <c r="I464" t="n">
-        <v>2.81030197280224</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -13932,9 +12538,6 @@
       <c r="H465" t="n">
         <v>8.389598846435547</v>
       </c>
-      <c r="I465" t="n">
-        <v>2.442483812904954</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -13961,9 +12564,6 @@
       <c r="H466" t="n">
         <v>6.456194877624512</v>
       </c>
-      <c r="I466" t="n">
-        <v>2.563113914582378</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -13990,9 +12590,6 @@
       <c r="H467" t="n">
         <v>21.06904363632202</v>
       </c>
-      <c r="I467" t="n">
-        <v>2.239016119007589</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -14019,9 +12616,6 @@
       <c r="H468" t="n">
         <v>7.9451904296875</v>
       </c>
-      <c r="I468" t="n">
-        <v>2.129921985219343</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -14048,9 +12642,6 @@
       <c r="H469" t="n">
         <v>6.431296110153198</v>
       </c>
-      <c r="I469" t="n">
-        <v>2.044849990806308</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -14077,9 +12668,6 @@
       <c r="H470" t="n">
         <v>20.59451532363892</v>
       </c>
-      <c r="I470" t="n">
-        <v>2.856026528373889</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -14106,9 +12694,6 @@
       <c r="H471" t="n">
         <v>8.400580883026123</v>
       </c>
-      <c r="I471" t="n">
-        <v>2.270594660214755</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -14135,9 +12720,6 @@
       <c r="H472" t="n">
         <v>6.234430551528931</v>
       </c>
-      <c r="I472" t="n">
-        <v>2.402118394813108</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -14164,9 +12746,6 @@
       <c r="H473" t="n">
         <v>22.03148627281189</v>
       </c>
-      <c r="I473" t="n">
-        <v>2.655438284010231</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -14193,9 +12772,6 @@
       <c r="H474" t="n">
         <v>7.581201314926147</v>
       </c>
-      <c r="I474" t="n">
-        <v>2.650516887700767</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -14222,9 +12798,6 @@
       <c r="H475" t="n">
         <v>6.071868419647217</v>
       </c>
-      <c r="I475" t="n">
-        <v>2.299414925582477</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -14251,9 +12824,6 @@
       <c r="H476" t="n">
         <v>20.43592119216919</v>
       </c>
-      <c r="I476" t="n">
-        <v>2.877534847358717</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -14280,9 +12850,6 @@
       <c r="H477" t="n">
         <v>7.638594388961792</v>
       </c>
-      <c r="I477" t="n">
-        <v>2.589812160845683</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -14309,9 +12876,6 @@
       <c r="H478" t="n">
         <v>6.186141490936279</v>
       </c>
-      <c r="I478" t="n">
-        <v>2.357108822850186</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -14338,9 +12902,6 @@
       <c r="H479" t="n">
         <v>22.95467138290405</v>
       </c>
-      <c r="I479" t="n">
-        <v>3.255590336983222</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -14367,9 +12928,6 @@
       <c r="H480" t="n">
         <v>8.236816644668579</v>
       </c>
-      <c r="I480" t="n">
-        <v>2.159113775525376</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -14396,9 +12954,6 @@
       <c r="H481" t="n">
         <v>6.750979900360107</v>
       </c>
-      <c r="I481" t="n">
-        <v>2.672247764863645</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -14425,9 +12980,6 @@
       <c r="H482" t="n">
         <v>21.17091250419617</v>
       </c>
-      <c r="I482" t="n">
-        <v>3.223560568267319</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -14454,9 +13006,6 @@
       <c r="H483" t="n">
         <v>8.084765672683716</v>
       </c>
-      <c r="I483" t="n">
-        <v>2.236149883862535</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -14483,9 +13032,6 @@
       <c r="H484" t="n">
         <v>7.563149452209473</v>
       </c>
-      <c r="I484" t="n">
-        <v>1.795139581762941</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -14512,9 +13058,6 @@
       <c r="H485" t="n">
         <v>25.93651008605957</v>
       </c>
-      <c r="I485" t="n">
-        <v>2.550717213307601</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -14541,9 +13084,6 @@
       <c r="H486" t="n">
         <v>9.244539499282837</v>
       </c>
-      <c r="I486" t="n">
-        <v>2.904497697763376</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -14570,9 +13110,6 @@
       <c r="H487" t="n">
         <v>7.059990406036377</v>
       </c>
-      <c r="I487" t="n">
-        <v>1.845946911940746</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -14599,9 +13136,6 @@
       <c r="H488" t="n">
         <v>18.43850660324097</v>
       </c>
-      <c r="I488" t="n">
-        <v>1.551867571739567</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -14628,9 +13162,6 @@
       <c r="H489" t="n">
         <v>12.91997838020325</v>
       </c>
-      <c r="I489" t="n">
-        <v>1.585803098296982</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -14657,9 +13188,6 @@
       <c r="H490" t="n">
         <v>8.141049385070801</v>
       </c>
-      <c r="I490" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -14686,9 +13214,6 @@
       <c r="H491" t="n">
         <v>19.95672655105591</v>
       </c>
-      <c r="I491" t="n">
-        <v>1.386386384478208</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -14715,9 +13240,6 @@
       <c r="H492" t="n">
         <v>20.30658721923828</v>
       </c>
-      <c r="I492" t="n">
-        <v>1.650860671214657</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -14744,9 +13266,6 @@
       <c r="H493" t="n">
         <v>12.39691567420959</v>
       </c>
-      <c r="I493" t="n">
-        <v>1.601855931619422</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -14773,9 +13292,6 @@
       <c r="H494" t="n">
         <v>20.28420305252075</v>
       </c>
-      <c r="I494" t="n">
-        <v>1.270854655041866</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -14802,9 +13318,6 @@
       <c r="H495" t="n">
         <v>20.47962927818298</v>
       </c>
-      <c r="I495" t="n">
-        <v>1.52302440733509</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -14831,9 +13344,6 @@
       <c r="H496" t="n">
         <v>9.466421604156494</v>
       </c>
-      <c r="I496" t="n">
-        <v>1.430187340193941</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -14860,9 +13370,6 @@
       <c r="H497" t="n">
         <v>18.99335741996765</v>
       </c>
-      <c r="I497" t="n">
-        <v>1.744806766705233</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -14889,9 +13396,6 @@
       <c r="H498" t="n">
         <v>12.23694014549255</v>
       </c>
-      <c r="I498" t="n">
-        <v>2.112272216595927</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -14918,9 +13422,6 @@
       <c r="H499" t="n">
         <v>8.370197534561157</v>
       </c>
-      <c r="I499" t="n">
-        <v>1.778584764986669</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -14947,9 +13448,6 @@
       <c r="H500" t="n">
         <v>20.30519199371338</v>
       </c>
-      <c r="I500" t="n">
-        <v>1.56584553293995</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -14976,9 +13474,6 @@
       <c r="H501" t="n">
         <v>18.48565125465393</v>
       </c>
-      <c r="I501" t="n">
-        <v>1.778198506513278</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -15005,9 +13500,6 @@
       <c r="H502" t="n">
         <v>11.58160448074341</v>
       </c>
-      <c r="I502" t="n">
-        <v>1.926029134556459</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -15034,9 +13526,6 @@
       <c r="H503" t="n">
         <v>20.36840581893921</v>
       </c>
-      <c r="I503" t="n">
-        <v>1.404814559664557</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -15063,9 +13552,6 @@
       <c r="H504" t="n">
         <v>14.92784929275513</v>
       </c>
-      <c r="I504" t="n">
-        <v>1.691034083819527</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -15092,9 +13578,6 @@
       <c r="H505" t="n">
         <v>8.239022731781006</v>
       </c>
-      <c r="I505" t="n">
-        <v>1.755977120492715</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -15121,9 +13604,6 @@
       <c r="H506" t="n">
         <v>20.83604121208191</v>
       </c>
-      <c r="I506" t="n">
-        <v>1.856904249382291</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -15150,9 +13630,6 @@
       <c r="H507" t="n">
         <v>8.625751972198486</v>
       </c>
-      <c r="I507" t="n">
-        <v>1.840213018128298</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -15179,9 +13656,6 @@
       <c r="H508" t="n">
         <v>6.535705327987671</v>
       </c>
-      <c r="I508" t="n">
-        <v>1.764462934050939</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -15208,9 +13682,6 @@
       <c r="H509" t="n">
         <v>22.37834310531616</v>
       </c>
-      <c r="I509" t="n">
-        <v>1.543876432193171</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -15237,9 +13708,6 @@
       <c r="H510" t="n">
         <v>13.12188649177551</v>
       </c>
-      <c r="I510" t="n">
-        <v>1.77475643070042</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -15266,9 +13734,6 @@
       <c r="H511" t="n">
         <v>9.320346593856812</v>
       </c>
-      <c r="I511" t="n">
-        <v>1.86303591183831</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -15295,9 +13760,6 @@
       <c r="H512" t="n">
         <v>21.62130117416382</v>
       </c>
-      <c r="I512" t="n">
-        <v>1.868639028555498</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -15324,9 +13786,6 @@
       <c r="H513" t="n">
         <v>12.9572696685791</v>
       </c>
-      <c r="I513" t="n">
-        <v>1.801664214279194</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -15353,9 +13812,6 @@
       <c r="H514" t="n">
         <v>7.187791109085083</v>
       </c>
-      <c r="I514" t="n">
-        <v>1.714166167349613</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -15382,9 +13838,6 @@
       <c r="H515" t="n">
         <v>18.8013756275177</v>
       </c>
-      <c r="I515" t="n">
-        <v>1.687810609368472</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -15411,9 +13864,6 @@
       <c r="H516" t="n">
         <v>9.478658437728882</v>
       </c>
-      <c r="I516" t="n">
-        <v>1.691109166323974</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -15440,9 +13890,6 @@
       <c r="H517" t="n">
         <v>8.892360210418701</v>
       </c>
-      <c r="I517" t="n">
-        <v>1.342739219773559</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -15469,9 +13916,6 @@
       <c r="H518" t="n">
         <v>19.83642768859863</v>
       </c>
-      <c r="I518" t="n">
-        <v>1.401214811576823</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -15498,9 +13942,6 @@
       <c r="H519" t="n">
         <v>10.7005136013031</v>
       </c>
-      <c r="I519" t="n">
-        <v>1.698472962819432</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -15527,9 +13968,6 @@
       <c r="H520" t="n">
         <v>6.799389839172363</v>
       </c>
-      <c r="I520" t="n">
-        <v>1.656579465760319</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -15556,9 +13994,6 @@
       <c r="H521" t="n">
         <v>20.01158380508423</v>
       </c>
-      <c r="I521" t="n">
-        <v>1.639621904820042</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -15585,9 +14020,6 @@
       <c r="H522" t="n">
         <v>18.69507360458374</v>
       </c>
-      <c r="I522" t="n">
-        <v>1.755892483773087</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -15614,9 +14046,6 @@
       <c r="H523" t="n">
         <v>9.21270227432251</v>
       </c>
-      <c r="I523" t="n">
-        <v>1.521504300192149</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -15643,9 +14072,6 @@
       <c r="H524" t="n">
         <v>19.45277309417725</v>
       </c>
-      <c r="I524" t="n">
-        <v>2.023339425547686</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -15672,9 +14098,6 @@
       <c r="H525" t="n">
         <v>10.38310265541077</v>
       </c>
-      <c r="I525" t="n">
-        <v>1.91770061609813</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -15701,9 +14124,6 @@
       <c r="H526" t="n">
         <v>7.690952062606812</v>
       </c>
-      <c r="I526" t="n">
-        <v>1.968983461559844</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -15730,9 +14150,6 @@
       <c r="H527" t="n">
         <v>33.79605269432068</v>
       </c>
-      <c r="I527" t="n">
-        <v>1.570513818693306</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -15759,9 +14176,6 @@
       <c r="H528" t="n">
         <v>21.43236184120178</v>
       </c>
-      <c r="I528" t="n">
-        <v>2.031215778610096</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -15788,9 +14202,6 @@
       <c r="H529" t="n">
         <v>13.69041419029236</v>
       </c>
-      <c r="I529" t="n">
-        <v>1.888997369839606</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -15817,9 +14228,6 @@
       <c r="H530" t="n">
         <v>46.17848372459412</v>
       </c>
-      <c r="I530" t="n">
-        <v>1.60545816671163</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -15846,9 +14254,6 @@
       <c r="H531" t="n">
         <v>19.81013154983521</v>
       </c>
-      <c r="I531" t="n">
-        <v>1.715843745334039</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -15875,9 +14280,6 @@
       <c r="H532" t="n">
         <v>17.70706295967102</v>
       </c>
-      <c r="I532" t="n">
-        <v>2.003123970666546</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -15904,9 +14306,6 @@
       <c r="H533" t="n">
         <v>44.25343656539917</v>
       </c>
-      <c r="I533" t="n">
-        <v>2.187199066553602</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -15933,9 +14332,6 @@
       <c r="H534" t="n">
         <v>16.31029033660889</v>
       </c>
-      <c r="I534" t="n">
-        <v>2.135961588278706</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -15962,9 +14358,6 @@
       <c r="H535" t="n">
         <v>14.61988162994385</v>
       </c>
-      <c r="I535" t="n">
-        <v>2.106430721652543</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -15991,9 +14384,6 @@
       <c r="H536" t="n">
         <v>45.55007100105286</v>
       </c>
-      <c r="I536" t="n">
-        <v>1.645502869413702</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -16020,9 +14410,6 @@
       <c r="H537" t="n">
         <v>23.65048480033875</v>
       </c>
-      <c r="I537" t="n">
-        <v>2.232777665601418</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -16049,9 +14436,6 @@
       <c r="H538" t="n">
         <v>12.56958532333374</v>
       </c>
-      <c r="I538" t="n">
-        <v>1.933393486910268</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -16078,9 +14462,6 @@
       <c r="H539" t="n">
         <v>47.98148679733276</v>
       </c>
-      <c r="I539" t="n">
-        <v>1.99168490708925</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -16107,9 +14488,6 @@
       <c r="H540" t="n">
         <v>14.71720671653748</v>
       </c>
-      <c r="I540" t="n">
-        <v>1.910439369745983</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -16136,9 +14514,6 @@
       <c r="H541" t="n">
         <v>17.10542774200439</v>
       </c>
-      <c r="I541" t="n">
-        <v>2.092747811723465</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -16165,9 +14540,6 @@
       <c r="H542" t="n">
         <v>41.58007073402405</v>
       </c>
-      <c r="I542" t="n">
-        <v>1.880547538973065</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -16194,9 +14566,6 @@
       <c r="H543" t="n">
         <v>17.40004420280457</v>
       </c>
-      <c r="I543" t="n">
-        <v>2.472457159117949</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -16223,9 +14592,6 @@
       <c r="H544" t="n">
         <v>12.09958934783936</v>
       </c>
-      <c r="I544" t="n">
-        <v>2.177720530736329</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -16252,9 +14618,6 @@
       <c r="H545" t="n">
         <v>44.5261058807373</v>
       </c>
-      <c r="I545" t="n">
-        <v>1.808258816896711</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -16281,9 +14644,6 @@
       <c r="H546" t="n">
         <v>15.54502940177917</v>
       </c>
-      <c r="I546" t="n">
-        <v>2.113123167230875</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -16310,9 +14670,6 @@
       <c r="H547" t="n">
         <v>12.93247008323669</v>
       </c>
-      <c r="I547" t="n">
-        <v>2.129008319169636</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -16339,9 +14696,6 @@
       <c r="H548" t="n">
         <v>43.14004349708557</v>
       </c>
-      <c r="I548" t="n">
-        <v>2.023435308270206</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -16368,9 +14722,6 @@
       <c r="H549" t="n">
         <v>16.59982228279114</v>
       </c>
-      <c r="I549" t="n">
-        <v>1.671039806168502</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -16397,9 +14748,6 @@
       <c r="H550" t="n">
         <v>11.54977631568909</v>
       </c>
-      <c r="I550" t="n">
-        <v>1.855255734994187</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -16426,9 +14774,6 @@
       <c r="H551" t="n">
         <v>47.41301393508911</v>
       </c>
-      <c r="I551" t="n">
-        <v>2.170685420188282</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -16455,9 +14800,6 @@
       <c r="H552" t="n">
         <v>19.39073061943054</v>
       </c>
-      <c r="I552" t="n">
-        <v>2.320102681446582</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -16484,9 +14826,6 @@
       <c r="H553" t="n">
         <v>12.20533299446106</v>
       </c>
-      <c r="I553" t="n">
-        <v>2.493617733225055</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -16513,9 +14852,6 @@
       <c r="H554" t="n">
         <v>45.87998986244202</v>
       </c>
-      <c r="I554" t="n">
-        <v>2.568391325126774</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -16542,9 +14878,6 @@
       <c r="H555" t="n">
         <v>18.5550708770752</v>
       </c>
-      <c r="I555" t="n">
-        <v>2.04354535940495</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -16571,9 +14904,6 @@
       <c r="H556" t="n">
         <v>12.16783118247986</v>
       </c>
-      <c r="I556" t="n">
-        <v>2.659761684467722</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -16600,9 +14930,6 @@
       <c r="H557" t="n">
         <v>46.17025756835938</v>
       </c>
-      <c r="I557" t="n">
-        <v>2.316758339685963</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -16629,9 +14956,6 @@
       <c r="H558" t="n">
         <v>19.80616641044617</v>
       </c>
-      <c r="I558" t="n">
-        <v>1.925212158869127</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -16658,9 +14982,6 @@
       <c r="H559" t="n">
         <v>13.35375428199768</v>
       </c>
-      <c r="I559" t="n">
-        <v>2.451119023452745</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -16687,9 +15008,6 @@
       <c r="H560" t="n">
         <v>53.62515735626221</v>
       </c>
-      <c r="I560" t="n">
-        <v>3.187986057698322</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -16716,9 +15034,6 @@
       <c r="H561" t="n">
         <v>20.22941327095032</v>
       </c>
-      <c r="I561" t="n">
-        <v>2.413077609719344</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -16745,9 +15060,6 @@
       <c r="H562" t="n">
         <v>16.19694924354553</v>
       </c>
-      <c r="I562" t="n">
-        <v>2.256888835989177</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -16774,9 +15086,6 @@
       <c r="H563" t="n">
         <v>52.34990620613098</v>
       </c>
-      <c r="I563" t="n">
-        <v>2.872173828385361</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -16803,9 +15112,6 @@
       <c r="H564" t="n">
         <v>18.75775718688965</v>
       </c>
-      <c r="I564" t="n">
-        <v>2.621312292242164</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -16832,9 +15138,6 @@
       <c r="H565" t="n">
         <v>13.17039203643799</v>
       </c>
-      <c r="I565" t="n">
-        <v>1.909377597339033</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -16861,9 +15164,6 @@
       <c r="H566" t="n">
         <v>42.88871669769287</v>
       </c>
-      <c r="I566" t="n">
-        <v>3.114620908877971</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -16890,9 +15190,6 @@
       <c r="H567" t="n">
         <v>20.31987476348877</v>
       </c>
-      <c r="I567" t="n">
-        <v>2.18499984377928</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -16919,9 +15216,6 @@
       <c r="H568" t="n">
         <v>15.80739784240723</v>
       </c>
-      <c r="I568" t="n">
-        <v>1.814239168130952</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -16948,9 +15242,6 @@
       <c r="H569" t="n">
         <v>39.54310441017151</v>
       </c>
-      <c r="I569" t="n">
-        <v>1.49333774012742</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -16977,9 +15268,6 @@
       <c r="H570" t="n">
         <v>18.94693040847778</v>
       </c>
-      <c r="I570" t="n">
-        <v>1.926072483550494</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -17006,9 +15294,6 @@
       <c r="H571" t="n">
         <v>14.46392130851746</v>
       </c>
-      <c r="I571" t="n">
-        <v>2.085689389011533</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -17035,9 +15320,6 @@
       <c r="H572" t="n">
         <v>30.50167798995972</v>
       </c>
-      <c r="I572" t="n">
-        <v>1.46610127388445</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -17064,9 +15346,6 @@
       <c r="H573" t="n">
         <v>40.14735984802246</v>
       </c>
-      <c r="I573" t="n">
-        <v>1.647205372246089</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -17093,9 +15372,6 @@
       <c r="H574" t="n">
         <v>38.25051593780518</v>
       </c>
-      <c r="I574" t="n">
-        <v>1.634530415575966</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -17122,9 +15398,6 @@
       <c r="H575" t="n">
         <v>37.46649837493896</v>
       </c>
-      <c r="I575" t="n">
-        <v>1.459273203924218</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -17151,9 +15424,6 @@
       <c r="H576" t="n">
         <v>27.64686584472656</v>
       </c>
-      <c r="I576" t="n">
-        <v>1.531846093725501</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -17180,9 +15450,6 @@
       <c r="H577" t="n">
         <v>27.64103817939758</v>
       </c>
-      <c r="I577" t="n">
-        <v>1.826509060031497</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -17209,9 +15476,6 @@
       <c r="H578" t="n">
         <v>37.78942012786865</v>
       </c>
-      <c r="I578" t="n">
-        <v>1.880298344004426</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -17238,9 +15502,6 @@
       <c r="H579" t="n">
         <v>16.49584937095642</v>
       </c>
-      <c r="I579" t="n">
-        <v>1.76643508864307</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -17267,9 +15528,6 @@
       <c r="H580" t="n">
         <v>20.84382677078247</v>
       </c>
-      <c r="I580" t="n">
-        <v>1.801678678672239</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -17296,9 +15554,6 @@
       <c r="H581" t="n">
         <v>37.24986410140991</v>
       </c>
-      <c r="I581" t="n">
-        <v>1.658078955693159</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -17325,9 +15580,6 @@
       <c r="H582" t="n">
         <v>25.01010060310364</v>
       </c>
-      <c r="I582" t="n">
-        <v>1.931984592338509</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -17354,9 +15606,6 @@
       <c r="H583" t="n">
         <v>19.99533247947693</v>
       </c>
-      <c r="I583" t="n">
-        <v>2.077161526536527</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -17383,9 +15632,6 @@
       <c r="H584" t="n">
         <v>37.90008807182312</v>
       </c>
-      <c r="I584" t="n">
-        <v>1.428764820475896</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -17412,9 +15658,6 @@
       <c r="H585" t="n">
         <v>38.2995924949646</v>
       </c>
-      <c r="I585" t="n">
-        <v>2.008306600291141</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -17441,9 +15684,6 @@
       <c r="H586" t="n">
         <v>26.4497275352478</v>
       </c>
-      <c r="I586" t="n">
-        <v>1.805092075993446</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -17470,9 +15710,6 @@
       <c r="H587" t="n">
         <v>40.58493423461914</v>
       </c>
-      <c r="I587" t="n">
-        <v>2.083484543430605</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -17499,9 +15736,6 @@
       <c r="H588" t="n">
         <v>18.64766263961792</v>
       </c>
-      <c r="I588" t="n">
-        <v>1.82229307385717</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -17528,9 +15762,6 @@
       <c r="H589" t="n">
         <v>10.93003034591675</v>
       </c>
-      <c r="I589" t="n">
-        <v>1.951420667157842</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -17557,9 +15788,6 @@
       <c r="H590" t="n">
         <v>41.77023243904114</v>
       </c>
-      <c r="I590" t="n">
-        <v>1.875242388851177</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -17586,9 +15814,6 @@
       <c r="H591" t="n">
         <v>25.6700427532196</v>
       </c>
-      <c r="I591" t="n">
-        <v>1.992552147690641</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -17615,9 +15840,6 @@
       <c r="H592" t="n">
         <v>19.18034338951111</v>
       </c>
-      <c r="I592" t="n">
-        <v>1.94443530231037</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -17644,9 +15866,6 @@
       <c r="H593" t="n">
         <v>42.37240719795227</v>
       </c>
-      <c r="I593" t="n">
-        <v>1.624566185422027</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -17673,9 +15892,6 @@
       <c r="H594" t="n">
         <v>21.80459237098694</v>
       </c>
-      <c r="I594" t="n">
-        <v>1.877829299093735</v>
-      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -17702,9 +15918,6 @@
       <c r="H595" t="n">
         <v>15.58297967910767</v>
       </c>
-      <c r="I595" t="n">
-        <v>1.927455563912456</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -17731,9 +15944,6 @@
       <c r="H596" t="n">
         <v>37.09988355636597</v>
       </c>
-      <c r="I596" t="n">
-        <v>1.741971426231951</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -17760,9 +15970,6 @@
       <c r="H597" t="n">
         <v>20.16294407844543</v>
       </c>
-      <c r="I597" t="n">
-        <v>2.118016524515007</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -17789,9 +15996,6 @@
       <c r="H598" t="n">
         <v>14.44013500213623</v>
       </c>
-      <c r="I598" t="n">
-        <v>2.373827881343539</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -17818,9 +16022,6 @@
       <c r="H599" t="n">
         <v>39.73358464241028</v>
       </c>
-      <c r="I599" t="n">
-        <v>1.697249843827442</v>
-      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -17847,9 +16048,6 @@
       <c r="H600" t="n">
         <v>22.20454716682434</v>
       </c>
-      <c r="I600" t="n">
-        <v>1.877444094438822</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -17876,9 +16074,6 @@
       <c r="H601" t="n">
         <v>18.77526116371155</v>
       </c>
-      <c r="I601" t="n">
-        <v>2.04086459918387</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -17905,9 +16100,6 @@
       <c r="H602" t="n">
         <v>39.98816204071045</v>
       </c>
-      <c r="I602" t="n">
-        <v>1.981803107996549</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -17934,9 +16126,6 @@
       <c r="H603" t="n">
         <v>35.67797589302063</v>
       </c>
-      <c r="I603" t="n">
-        <v>2.08876279752144</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -17963,9 +16152,6 @@
       <c r="H604" t="n">
         <v>14.72199511528015</v>
       </c>
-      <c r="I604" t="n">
-        <v>1.800951227340003</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -17992,9 +16178,6 @@
       <c r="H605" t="n">
         <v>38.21993613243103</v>
       </c>
-      <c r="I605" t="n">
-        <v>2.027298880829309</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -18021,9 +16204,6 @@
       <c r="H606" t="n">
         <v>15.92013025283813</v>
       </c>
-      <c r="I606" t="n">
-        <v>2.033249256783838</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -18050,9 +16230,6 @@
       <c r="H607" t="n">
         <v>12.07050967216492</v>
       </c>
-      <c r="I607" t="n">
-        <v>2.140886985751381</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -18079,9 +16256,6 @@
       <c r="H608" t="n">
         <v>39.75111079216003</v>
       </c>
-      <c r="I608" t="n">
-        <v>2.290479473760389</v>
-      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -18108,9 +16282,6 @@
       <c r="H609" t="n">
         <v>13.50033593177795</v>
       </c>
-      <c r="I609" t="n">
-        <v>2.084563702249433</v>
-      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -18137,9 +16308,6 @@
       <c r="H610" t="n">
         <v>16.37514305114746</v>
       </c>
-      <c r="I610" t="n">
-        <v>2.003868357686724</v>
-      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -18166,9 +16334,6 @@
       <c r="H611" t="n">
         <v>40.53240513801575</v>
       </c>
-      <c r="I611" t="n">
-        <v>1.862414650005934</v>
-      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -18195,9 +16360,6 @@
       <c r="H612" t="n">
         <v>18.25443696975708</v>
       </c>
-      <c r="I612" t="n">
-        <v>2.031936776688081</v>
-      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -18224,9 +16386,6 @@
       <c r="H613" t="n">
         <v>24.34741640090942</v>
       </c>
-      <c r="I613" t="n">
-        <v>1.969219588344347</v>
-      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -18253,9 +16412,6 @@
       <c r="H614" t="n">
         <v>41.74866676330566</v>
       </c>
-      <c r="I614" t="n">
-        <v>2.433628781707218</v>
-      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -18282,9 +16438,6 @@
       <c r="H615" t="n">
         <v>23.73470997810364</v>
       </c>
-      <c r="I615" t="n">
-        <v>1.914917474747654</v>
-      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -18311,9 +16464,6 @@
       <c r="H616" t="n">
         <v>9.94524097442627</v>
       </c>
-      <c r="I616" t="n">
-        <v>2.104838274425254</v>
-      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -18340,9 +16490,6 @@
       <c r="H617" t="n">
         <v>42.21636891365051</v>
       </c>
-      <c r="I617" t="n">
-        <v>2.109892396407929</v>
-      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -18369,9 +16516,6 @@
       <c r="H618" t="n">
         <v>16.9431939125061</v>
       </c>
-      <c r="I618" t="n">
-        <v>2.37138778924454</v>
-      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -18398,9 +16542,6 @@
       <c r="H619" t="n">
         <v>12.40657496452332</v>
       </c>
-      <c r="I619" t="n">
-        <v>2.064634179456119</v>
-      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -18427,9 +16568,6 @@
       <c r="H620" t="n">
         <v>43.17128419876099</v>
       </c>
-      <c r="I620" t="n">
-        <v>2.026809272489057</v>
-      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -18456,9 +16594,6 @@
       <c r="H621" t="n">
         <v>14.59798383712769</v>
       </c>
-      <c r="I621" t="n">
-        <v>2.173228893792782</v>
-      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -18485,9 +16620,6 @@
       <c r="H622" t="n">
         <v>17.08804702758789</v>
       </c>
-      <c r="I622" t="n">
-        <v>2.168697805358196</v>
-      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -18514,9 +16646,6 @@
       <c r="H623" t="n">
         <v>40.930020570755</v>
       </c>
-      <c r="I623" t="n">
-        <v>2.571166077849804</v>
-      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -18543,9 +16672,6 @@
       <c r="H624" t="n">
         <v>19.31759238243103</v>
       </c>
-      <c r="I624" t="n">
-        <v>2.736457200222302</v>
-      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -18572,9 +16698,6 @@
       <c r="H625" t="n">
         <v>11.42818379402161</v>
       </c>
-      <c r="I625" t="n">
-        <v>2.683542178229594</v>
-      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -18601,9 +16724,6 @@
       <c r="H626" t="n">
         <v>36.46436095237732</v>
       </c>
-      <c r="I626" t="n">
-        <v>2.634125455582954</v>
-      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -18630,9 +16750,6 @@
       <c r="H627" t="n">
         <v>14.16366100311279</v>
       </c>
-      <c r="I627" t="n">
-        <v>1.793213289987459</v>
-      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -18659,9 +16776,6 @@
       <c r="H628" t="n">
         <v>14.83110570907593</v>
       </c>
-      <c r="I628" t="n">
-        <v>1.554150625583343</v>
-      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -18688,9 +16802,6 @@
       <c r="H629" t="n">
         <v>36.93398380279541</v>
       </c>
-      <c r="I629" t="n">
-        <v>2.792966253547844</v>
-      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -18717,9 +16828,6 @@
       <c r="H630" t="n">
         <v>13.70513701438904</v>
       </c>
-      <c r="I630" t="n">
-        <v>2.293484362005119</v>
-      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -18746,9 +16854,6 @@
       <c r="H631" t="n">
         <v>10.15017771720886</v>
       </c>
-      <c r="I631" t="n">
-        <v>1.924975324421859</v>
-      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -18775,9 +16880,6 @@
       <c r="H632" t="n">
         <v>44.98220753669739</v>
       </c>
-      <c r="I632" t="n">
-        <v>2.400103958536328</v>
-      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -18804,9 +16906,6 @@
       <c r="H633" t="n">
         <v>17.01032042503357</v>
       </c>
-      <c r="I633" t="n">
-        <v>3.029686382603502</v>
-      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -18833,9 +16932,6 @@
       <c r="H634" t="n">
         <v>12.82998585700989</v>
       </c>
-      <c r="I634" t="n">
-        <v>2.67848423450083</v>
-      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -18862,9 +16958,6 @@
       <c r="H635" t="n">
         <v>39.63711071014404</v>
       </c>
-      <c r="I635" t="n">
-        <v>2.372826103947279</v>
-      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -18891,9 +16984,6 @@
       <c r="H636" t="n">
         <v>15.08005523681641</v>
       </c>
-      <c r="I636" t="n">
-        <v>2.341083476431685</v>
-      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -18920,9 +17010,6 @@
       <c r="H637" t="n">
         <v>11.8807692527771</v>
       </c>
-      <c r="I637" t="n">
-        <v>2.09586997354118</v>
-      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -18949,9 +17036,6 @@
       <c r="H638" t="n">
         <v>46.68396830558777</v>
       </c>
-      <c r="I638" t="n">
-        <v>2.82193001737863</v>
-      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -18978,9 +17062,6 @@
       <c r="H639" t="n">
         <v>8.891043663024902</v>
       </c>
-      <c r="I639" t="n">
-        <v>2.738295651406139</v>
-      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -19007,9 +17088,6 @@
       <c r="H640" t="n">
         <v>6.935264110565186</v>
       </c>
-      <c r="I640" t="n">
-        <v>2.149050578981798</v>
-      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -19036,9 +17114,6 @@
       <c r="H641" t="n">
         <v>20.79020237922668</v>
       </c>
-      <c r="I641" t="n">
-        <v>3.194555207772766</v>
-      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -19065,9 +17140,6 @@
       <c r="H642" t="n">
         <v>10.99130368232727</v>
       </c>
-      <c r="I642" t="n">
-        <v>2.938479866436037</v>
-      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -19094,9 +17166,6 @@
       <c r="H643" t="n">
         <v>7.406073808670044</v>
       </c>
-      <c r="I643" t="n">
-        <v>2.713018931544051</v>
-      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -19123,9 +17192,6 @@
       <c r="H644" t="n">
         <v>23.07603240013123</v>
       </c>
-      <c r="I644" t="n">
-        <v>3.81554500263299</v>
-      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -19152,9 +17218,6 @@
       <c r="H645" t="n">
         <v>9.798022985458374</v>
       </c>
-      <c r="I645" t="n">
-        <v>3.097840267287236</v>
-      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -19181,9 +17244,6 @@
       <c r="H646" t="n">
         <v>7.077465534210205</v>
       </c>
-      <c r="I646" t="n">
-        <v>2.834143960272531</v>
-      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -19210,9 +17270,6 @@
       <c r="H647" t="n">
         <v>25.80644869804382</v>
       </c>
-      <c r="I647" t="n">
-        <v>2.664543428095201</v>
-      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -19239,9 +17296,6 @@
       <c r="H648" t="n">
         <v>8.485941171646118</v>
       </c>
-      <c r="I648" t="n">
-        <v>2.648462821503572</v>
-      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -19268,9 +17322,6 @@
       <c r="H649" t="n">
         <v>7.249036550521851</v>
       </c>
-      <c r="I649" t="n">
-        <v>2.695430123375161</v>
-      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -19297,9 +17348,6 @@
       <c r="H650" t="n">
         <v>38.41740393638611</v>
       </c>
-      <c r="I650" t="n">
-        <v>2.878059413763431</v>
-      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -19326,9 +17374,6 @@
       <c r="H651" t="n">
         <v>24.45013833045959</v>
       </c>
-      <c r="I651" t="n">
-        <v>3.445391189211448</v>
-      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -19355,9 +17400,6 @@
       <c r="H652" t="n">
         <v>72.53788638114929</v>
       </c>
-      <c r="I652" t="n">
-        <v>2.717086958809901</v>
-      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -19384,9 +17426,6 @@
       <c r="H653" t="n">
         <v>42.48618745803833</v>
       </c>
-      <c r="I653" t="n">
-        <v>2.610070813248261</v>
-      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -19413,9 +17452,6 @@
       <c r="H654" t="n">
         <v>151.8324327468872</v>
       </c>
-      <c r="I654" t="n">
-        <v>3.766744059841676</v>
-      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -19442,9 +17478,6 @@
       <c r="H655" t="n">
         <v>89.64016056060791</v>
       </c>
-      <c r="I655" t="n">
-        <v>2.72482009056446</v>
-      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -19471,9 +17504,6 @@
       <c r="H656" t="n">
         <v>71.46996521949768</v>
       </c>
-      <c r="I656" t="n">
-        <v>2.789720136311399</v>
-      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -19500,9 +17530,6 @@
       <c r="H657" t="n">
         <v>55.49681806564331</v>
       </c>
-      <c r="I657" t="n">
-        <v>3.321540156873391</v>
-      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -19529,9 +17556,6 @@
       <c r="H658" t="n">
         <v>169.4591386318207</v>
       </c>
-      <c r="I658" t="n">
-        <v>3.992525283282007</v>
-      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -19558,9 +17582,6 @@
       <c r="H659" t="n">
         <v>120.94224858284</v>
       </c>
-      <c r="I659" t="n">
-        <v>3.052215989790171</v>
-      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -19587,9 +17608,6 @@
       <c r="H660" t="n">
         <v>353.434202671051</v>
       </c>
-      <c r="I660" t="n">
-        <v>3.475655640877539</v>
-      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -19616,9 +17634,6 @@
       <c r="H661" t="n">
         <v>195.2090840339661</v>
       </c>
-      <c r="I661" t="n">
-        <v>2.86666938082146</v>
-      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -19645,9 +17660,6 @@
       <c r="H662" t="n">
         <v>106.6627502441406</v>
       </c>
-      <c r="I662" t="n">
-        <v>3.000794667839881</v>
-      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -19674,9 +17686,6 @@
       <c r="H663" t="n">
         <v>84.61063027381897</v>
       </c>
-      <c r="I663" t="n">
-        <v>3.775084501218062</v>
-      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -19703,9 +17712,6 @@
       <c r="H664" t="n">
         <v>303.6973550319672</v>
       </c>
-      <c r="I664" t="n">
-        <v>3.983832440600078</v>
-      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -19732,9 +17738,6 @@
       <c r="H665" t="n">
         <v>116.5010004043579</v>
       </c>
-      <c r="I665" t="n">
-        <v>3.050519608857027</v>
-      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -19761,9 +17764,6 @@
       <c r="H666" t="n">
         <v>349.8673024177551</v>
       </c>
-      <c r="I666" t="n">
-        <v>3.33269739075523</v>
-      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -19789,9 +17789,6 @@
       </c>
       <c r="H667" t="n">
         <v>262.9202170372009</v>
-      </c>
-      <c r="I667" t="n">
-        <v>3.663215905325868</v>
       </c>
     </row>
   </sheetData>
